--- a/data_and_schema/BILLFORMS_TEMPLATE.xlsx
+++ b/data_and_schema/BILLFORMS_TEMPLATE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276C74EA-3355-46B9-A2FE-176F99224DFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA581B10-3647-4F8E-A677-5B60FB147861}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="10" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="427">
   <si>
     <t>Unit</t>
   </si>
@@ -2109,18 +2109,6 @@
   </si>
   <si>
     <t>To be filled by the user</t>
-  </si>
-  <si>
-    <t>Rs. Seven Thousand Only</t>
-  </si>
-  <si>
-    <t>Sub Div-3M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sewa Bhawan </t>
-  </si>
-  <si>
-    <t>New Delhi</t>
   </si>
 </sst>
 </file>
@@ -4340,6 +4328,15 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4395,24 +4392,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4449,18 +4449,6 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4488,221 +4476,143 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="50" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="50" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="48" fillId="0" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="168" fontId="53" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="168" fontId="53" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4742,12 +4652,6 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -4767,26 +4671,137 @@
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4801,33 +4816,6 @@
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="18" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="89" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5758,8 +5746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5774,24 +5762,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="331" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="349"/>
-      <c r="F1" s="349"/>
-      <c r="G1" s="349"/>
+      <c r="B1" s="331"/>
+      <c r="C1" s="331"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="331"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="349"/>
-      <c r="B2" s="349"/>
-      <c r="C2" s="349"/>
-      <c r="D2" s="349"/>
-      <c r="E2" s="349"/>
-      <c r="F2" s="349"/>
-      <c r="G2" s="349"/>
+      <c r="A2" s="331"/>
+      <c r="B2" s="331"/>
+      <c r="C2" s="331"/>
+      <c r="D2" s="331"/>
+      <c r="E2" s="331"/>
+      <c r="F2" s="331"/>
+      <c r="G2" s="331"/>
     </row>
     <row r="3" spans="1:11" ht="25" customHeight="1">
       <c r="A3" s="55" t="s">
@@ -5800,11 +5788,11 @@
       <c r="B3" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="350"/>
-      <c r="G3" s="350"/>
+      <c r="C3" s="332"/>
+      <c r="D3" s="332"/>
+      <c r="E3" s="332"/>
+      <c r="F3" s="332"/>
+      <c r="G3" s="332"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
       <c r="J3" s="57"/>
@@ -5817,11 +5805,11 @@
       <c r="B4" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="350"/>
-      <c r="D4" s="350"/>
-      <c r="E4" s="350"/>
-      <c r="F4" s="350"/>
-      <c r="G4" s="350"/>
+      <c r="C4" s="332"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
       <c r="H4" s="57"/>
       <c r="I4" s="57"/>
       <c r="J4" s="57"/>
@@ -5834,11 +5822,11 @@
       <c r="B5" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="351"/>
-      <c r="D5" s="351"/>
-      <c r="E5" s="351"/>
-      <c r="F5" s="351"/>
-      <c r="G5" s="351"/>
+      <c r="C5" s="333"/>
+      <c r="D5" s="333"/>
+      <c r="E5" s="333"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="333"/>
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
       <c r="J5" s="57"/>
@@ -5851,11 +5839,11 @@
       <c r="B6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="351"/>
-      <c r="D6" s="351"/>
-      <c r="E6" s="351"/>
-      <c r="F6" s="351"/>
-      <c r="G6" s="351"/>
+      <c r="C6" s="333"/>
+      <c r="D6" s="333"/>
+      <c r="E6" s="333"/>
+      <c r="F6" s="333"/>
+      <c r="G6" s="333"/>
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
       <c r="J6" s="57"/>
@@ -5868,11 +5856,11 @@
       <c r="B7" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="331"/>
-      <c r="D7" s="332"/>
-      <c r="E7" s="332"/>
-      <c r="F7" s="332"/>
-      <c r="G7" s="333"/>
+      <c r="C7" s="334"/>
+      <c r="D7" s="335"/>
+      <c r="E7" s="335"/>
+      <c r="F7" s="335"/>
+      <c r="G7" s="336"/>
       <c r="H7" s="57"/>
       <c r="I7" s="57"/>
       <c r="J7" s="57"/>
@@ -5885,11 +5873,11 @@
       <c r="B8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="340"/>
-      <c r="D8" s="341"/>
-      <c r="E8" s="341"/>
-      <c r="F8" s="341"/>
-      <c r="G8" s="342"/>
+      <c r="C8" s="343"/>
+      <c r="D8" s="344"/>
+      <c r="E8" s="344"/>
+      <c r="F8" s="344"/>
+      <c r="G8" s="345"/>
       <c r="H8" s="57"/>
       <c r="I8" s="57" t="s">
         <v>426</v>
@@ -5904,11 +5892,11 @@
       <c r="B9" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="344"/>
-      <c r="D9" s="344"/>
-      <c r="E9" s="344"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
+      <c r="C9" s="347"/>
+      <c r="D9" s="347"/>
+      <c r="E9" s="347"/>
+      <c r="F9" s="347"/>
+      <c r="G9" s="347"/>
       <c r="H9" s="57"/>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
@@ -5921,11 +5909,11 @@
       <c r="B10" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="345"/>
-      <c r="D10" s="346"/>
-      <c r="E10" s="346"/>
-      <c r="F10" s="346"/>
-      <c r="G10" s="346"/>
+      <c r="C10" s="348"/>
+      <c r="D10" s="349"/>
+      <c r="E10" s="349"/>
+      <c r="F10" s="349"/>
+      <c r="G10" s="349"/>
     </row>
     <row r="11" spans="1:11" ht="15.5">
       <c r="A11" s="59" t="s">
@@ -5934,11 +5922,11 @@
       <c r="B11" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="347"/>
-      <c r="D11" s="347"/>
-      <c r="E11" s="347"/>
-      <c r="F11" s="347"/>
-      <c r="G11" s="347"/>
+      <c r="C11" s="350"/>
+      <c r="D11" s="350"/>
+      <c r="E11" s="350"/>
+      <c r="F11" s="350"/>
+      <c r="G11" s="350"/>
     </row>
     <row r="12" spans="1:11" ht="15.5">
       <c r="A12" s="59" t="s">
@@ -5947,11 +5935,11 @@
       <c r="B12" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="347"/>
-      <c r="D12" s="347"/>
-      <c r="E12" s="347"/>
-      <c r="F12" s="347"/>
-      <c r="G12" s="347"/>
+      <c r="C12" s="350"/>
+      <c r="D12" s="350"/>
+      <c r="E12" s="350"/>
+      <c r="F12" s="350"/>
+      <c r="G12" s="350"/>
     </row>
     <row r="13" spans="1:11" ht="15.5">
       <c r="A13" s="60" t="s">
@@ -5960,11 +5948,11 @@
       <c r="B13" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="343"/>
-      <c r="D13" s="343"/>
-      <c r="E13" s="343"/>
-      <c r="F13" s="343"/>
-      <c r="G13" s="343"/>
+      <c r="C13" s="346"/>
+      <c r="D13" s="346"/>
+      <c r="E13" s="346"/>
+      <c r="F13" s="346"/>
+      <c r="G13" s="346"/>
     </row>
     <row r="14" spans="1:11" ht="15.5">
       <c r="A14" s="60" t="s">
@@ -5973,25 +5961,25 @@
       <c r="B14" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="343"/>
-      <c r="D14" s="343"/>
-      <c r="E14" s="343"/>
-      <c r="F14" s="343"/>
-      <c r="G14" s="343"/>
+      <c r="C14" s="346"/>
+      <c r="D14" s="346"/>
+      <c r="E14" s="346"/>
+      <c r="F14" s="346"/>
+      <c r="G14" s="346"/>
     </row>
     <row r="15" spans="1:11" ht="25" customHeight="1">
-      <c r="A15" s="338" t="s">
+      <c r="A15" s="341" t="s">
         <v>426</v>
       </c>
-      <c r="B15" s="339"/>
-      <c r="C15" s="339"/>
-      <c r="D15" s="339"/>
-      <c r="E15" s="339"/>
-      <c r="F15" s="339"/>
-      <c r="G15" s="339"/>
+      <c r="B15" s="342"/>
+      <c r="C15" s="342"/>
+      <c r="D15" s="342"/>
+      <c r="E15" s="342"/>
+      <c r="F15" s="342"/>
+      <c r="G15" s="342"/>
     </row>
     <row r="16" spans="1:11" s="107" customFormat="1" ht="15.5">
-      <c r="A16" s="348" t="s">
+      <c r="A16" s="351" t="s">
         <v>192</v>
       </c>
       <c r="B16" s="322"/>
@@ -6008,82 +5996,65 @@
       <c r="G16" s="321"/>
     </row>
     <row r="17" spans="1:7" s="62" customFormat="1" ht="13">
-      <c r="A17" s="348"/>
+      <c r="A17" s="351"/>
       <c r="B17" s="324"/>
-      <c r="C17" s="329">
-        <v>15000</v>
-      </c>
-      <c r="D17" s="330">
-        <v>8000</v>
-      </c>
+      <c r="C17" s="329"/>
+      <c r="D17" s="330"/>
       <c r="E17" s="330">
         <f>C17-D17</f>
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="325"/>
       <c r="G17" s="72"/>
     </row>
-    <row r="18" spans="1:7" ht="29">
-      <c r="A18" s="335" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="338" t="s">
         <v>314</v>
       </c>
-      <c r="B18" s="336"/>
-      <c r="C18" s="336"/>
-      <c r="D18" s="337"/>
-      <c r="E18" s="326" t="s">
-        <v>427</v>
-      </c>
+      <c r="B18" s="339"/>
+      <c r="C18" s="339"/>
+      <c r="D18" s="340"/>
+      <c r="E18" s="326"/>
       <c r="F18" s="327"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="334" t="s">
+      <c r="A19" s="337" t="s">
         <v>380</v>
       </c>
-      <c r="B19" s="334"/>
-      <c r="C19" s="334"/>
-      <c r="D19" s="334"/>
+      <c r="B19" s="337"/>
+      <c r="C19" s="337"/>
+      <c r="D19" s="337"/>
       <c r="E19" s="326" t="s">
         <v>422</v>
       </c>
       <c r="F19" s="327"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="334"/>
-      <c r="B20" s="334"/>
-      <c r="C20" s="334"/>
-      <c r="D20" s="334"/>
-      <c r="E20" s="328" t="s">
-        <v>428</v>
-      </c>
+      <c r="A20" s="337"/>
+      <c r="B20" s="337"/>
+      <c r="C20" s="337"/>
+      <c r="D20" s="337"/>
+      <c r="E20" s="328"/>
       <c r="F20" s="327"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="334"/>
-      <c r="B21" s="334"/>
-      <c r="C21" s="334"/>
-      <c r="D21" s="334"/>
-      <c r="E21" s="328" t="s">
-        <v>429</v>
-      </c>
+      <c r="A21" s="337"/>
+      <c r="B21" s="337"/>
+      <c r="C21" s="337"/>
+      <c r="D21" s="337"/>
+      <c r="E21" s="328"/>
       <c r="F21" s="327"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="334"/>
-      <c r="B22" s="334"/>
-      <c r="C22" s="334"/>
-      <c r="D22" s="334"/>
-      <c r="E22" s="328" t="s">
-        <v>430</v>
-      </c>
+      <c r="A22" s="337"/>
+      <c r="B22" s="337"/>
+      <c r="C22" s="337"/>
+      <c r="D22" s="337"/>
+      <c r="E22" s="328"/>
       <c r="F22" s="327"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="A19:D22"/>
     <mergeCell ref="A18:D18"/>
@@ -6096,6 +6067,11 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6585,7 +6561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -7038,18 +7014,18 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A4" s="367" t="s">
+      <c r="A4" s="352" t="s">
         <v>306</v>
       </c>
-      <c r="B4" s="367"/>
-      <c r="C4" s="367"/>
-      <c r="D4" s="367"/>
-      <c r="E4" s="367"/>
-      <c r="F4" s="367"/>
-      <c r="G4" s="367"/>
-      <c r="H4" s="367"/>
-      <c r="I4" s="367"/>
-      <c r="J4" s="367"/>
+      <c r="B4" s="352"/>
+      <c r="C4" s="352"/>
+      <c r="D4" s="352"/>
+      <c r="E4" s="352"/>
+      <c r="F4" s="352"/>
+      <c r="G4" s="352"/>
+      <c r="H4" s="352"/>
+      <c r="I4" s="352"/>
+      <c r="J4" s="352"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1">
       <c r="D5" s="74"/>
@@ -7062,12 +7038,12 @@
       <c r="F6" s="74"/>
     </row>
     <row r="7" spans="1:10" ht="33.75" customHeight="1" thickBot="1">
-      <c r="D7" s="368" t="s">
+      <c r="D7" s="353" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="369"/>
-      <c r="F7" s="369"/>
-      <c r="G7" s="370"/>
+      <c r="E7" s="354"/>
+      <c r="F7" s="354"/>
+      <c r="G7" s="355"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1">
       <c r="D8" s="74"/>
@@ -7075,156 +7051,156 @@
       <c r="F8" s="74"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A9" s="353" t="s">
+      <c r="A9" s="356" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="353"/>
+      <c r="B9" s="356"/>
       <c r="C9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="354" t="str">
+      <c r="D9" s="357" t="str">
         <f>CONCATENATE(MAIN!C13)</f>
         <v/>
       </c>
-      <c r="E9" s="354"/>
-      <c r="F9" s="354"/>
-      <c r="G9" s="354"/>
-      <c r="H9" s="354"/>
-      <c r="I9" s="354"/>
-      <c r="J9" s="354"/>
+      <c r="E9" s="357"/>
+      <c r="F9" s="357"/>
+      <c r="G9" s="357"/>
+      <c r="H9" s="357"/>
+      <c r="I9" s="357"/>
+      <c r="J9" s="357"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="75"/>
       <c r="B10" s="75"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="353" t="s">
+      <c r="A11" s="356" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="353"/>
+      <c r="B11" s="356"/>
       <c r="C11" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="354" t="str">
+      <c r="D11" s="357" t="str">
         <f>CONCATENATE(MAIN!C14)</f>
         <v/>
       </c>
-      <c r="E11" s="354"/>
-      <c r="F11" s="354"/>
-      <c r="G11" s="354"/>
-      <c r="H11" s="354"/>
-      <c r="I11" s="354"/>
-      <c r="J11" s="354"/>
+      <c r="E11" s="357"/>
+      <c r="F11" s="357"/>
+      <c r="G11" s="357"/>
+      <c r="H11" s="357"/>
+      <c r="I11" s="357"/>
+      <c r="J11" s="357"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
       <c r="A12" s="75"/>
       <c r="B12" s="75"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="353" t="s">
+      <c r="A13" s="356" t="s">
         <v>202</v>
       </c>
-      <c r="B13" s="353"/>
+      <c r="B13" s="356"/>
       <c r="C13" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="354">
+      <c r="D13" s="357">
         <f>BF_AGENCY</f>
         <v>0</v>
       </c>
-      <c r="E13" s="354"/>
-      <c r="F13" s="354"/>
-      <c r="G13" s="354"/>
-      <c r="H13" s="354"/>
-      <c r="I13" s="354"/>
-      <c r="J13" s="354"/>
+      <c r="E13" s="357"/>
+      <c r="F13" s="357"/>
+      <c r="G13" s="357"/>
+      <c r="H13" s="357"/>
+      <c r="I13" s="357"/>
+      <c r="J13" s="357"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1">
       <c r="A14" s="75"/>
       <c r="B14" s="75"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A15" s="353" t="s">
+      <c r="A15" s="356" t="s">
         <v>307</v>
       </c>
-      <c r="B15" s="353"/>
+      <c r="B15" s="356"/>
       <c r="C15" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="354">
+      <c r="D15" s="357">
         <f>BF_AGGREEMENT_NUM</f>
         <v>0</v>
       </c>
-      <c r="E15" s="354"/>
-      <c r="F15" s="354"/>
-      <c r="G15" s="354"/>
-      <c r="H15" s="354"/>
-      <c r="I15" s="354"/>
-      <c r="J15" s="354"/>
+      <c r="E15" s="357"/>
+      <c r="F15" s="357"/>
+      <c r="G15" s="357"/>
+      <c r="H15" s="357"/>
+      <c r="I15" s="357"/>
+      <c r="J15" s="357"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A17" s="353" t="s">
+      <c r="A17" s="356" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="353"/>
+      <c r="B17" s="356"/>
       <c r="C17" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="354">
+      <c r="D17" s="357">
         <f>MAIN!C8</f>
         <v>0</v>
       </c>
-      <c r="E17" s="354"/>
-      <c r="F17" s="354"/>
-      <c r="G17" s="354"/>
-      <c r="H17" s="354"/>
-      <c r="I17" s="354"/>
-      <c r="J17" s="354"/>
+      <c r="E17" s="357"/>
+      <c r="F17" s="357"/>
+      <c r="G17" s="357"/>
+      <c r="H17" s="357"/>
+      <c r="I17" s="357"/>
+      <c r="J17" s="357"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
       <c r="A21" s="74"/>
       <c r="B21" s="74"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A22" s="355" t="s">
+      <c r="A22" s="359" t="s">
         <v>203</v>
       </c>
-      <c r="B22" s="356"/>
-      <c r="C22" s="361">
+      <c r="B22" s="360"/>
+      <c r="C22" s="365">
         <f>MAIN!C10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="361"/>
-      <c r="E22" s="361"/>
-      <c r="F22" s="361"/>
-      <c r="G22" s="361"/>
-      <c r="H22" s="361"/>
-      <c r="I22" s="361"/>
-      <c r="J22" s="362"/>
+      <c r="D22" s="365"/>
+      <c r="E22" s="365"/>
+      <c r="F22" s="365"/>
+      <c r="G22" s="365"/>
+      <c r="H22" s="365"/>
+      <c r="I22" s="365"/>
+      <c r="J22" s="366"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A23" s="357"/>
-      <c r="B23" s="358"/>
-      <c r="C23" s="363"/>
-      <c r="D23" s="363"/>
-      <c r="E23" s="363"/>
-      <c r="F23" s="363"/>
-      <c r="G23" s="363"/>
-      <c r="H23" s="363"/>
-      <c r="I23" s="363"/>
-      <c r="J23" s="364"/>
+      <c r="A23" s="361"/>
+      <c r="B23" s="362"/>
+      <c r="C23" s="367"/>
+      <c r="D23" s="367"/>
+      <c r="E23" s="367"/>
+      <c r="F23" s="367"/>
+      <c r="G23" s="367"/>
+      <c r="H23" s="367"/>
+      <c r="I23" s="367"/>
+      <c r="J23" s="368"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" thickBot="1">
-      <c r="A24" s="359"/>
-      <c r="B24" s="360"/>
-      <c r="C24" s="365"/>
-      <c r="D24" s="365"/>
-      <c r="E24" s="365"/>
-      <c r="F24" s="365"/>
-      <c r="G24" s="365"/>
-      <c r="H24" s="365"/>
-      <c r="I24" s="365"/>
-      <c r="J24" s="366"/>
+      <c r="A24" s="363"/>
+      <c r="B24" s="364"/>
+      <c r="C24" s="369"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="370"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1">
       <c r="A25" s="76"/>
@@ -7239,26 +7215,26 @@
       <c r="J25" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A31" s="352" t="s">
+      <c r="A31" s="358" t="s">
         <v>204</v>
       </c>
-      <c r="B31" s="352"/>
-      <c r="C31" s="352"/>
-      <c r="D31" s="352"/>
-      <c r="E31" s="352"/>
-      <c r="F31" s="352"/>
-      <c r="G31" s="352"/>
-      <c r="H31" s="352"/>
-      <c r="I31" s="352"/>
-      <c r="J31" s="352"/>
+      <c r="B31" s="358"/>
+      <c r="C31" s="358"/>
+      <c r="D31" s="358"/>
+      <c r="E31" s="358"/>
+      <c r="F31" s="358"/>
+      <c r="G31" s="358"/>
+      <c r="H31" s="358"/>
+      <c r="I31" s="358"/>
+      <c r="J31" s="358"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A33" s="353" t="s">
+      <c r="A33" s="356" t="s">
         <v>205</v>
       </c>
-      <c r="B33" s="353"/>
-      <c r="C33" s="353"/>
-      <c r="D33" s="353"/>
+      <c r="B33" s="356"/>
+      <c r="C33" s="356"/>
+      <c r="D33" s="356"/>
       <c r="E33" s="77"/>
       <c r="G33" s="78" t="s">
         <v>206</v>
@@ -7282,12 +7258,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A13:B13"/>
@@ -7298,6 +7268,12 @@
     <mergeCell ref="C22:J24"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="D17:J17"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.39370078740157483" top="0.39370078740157483" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
@@ -7731,7 +7707,7 @@
       </c>
       <c r="C11" s="35">
         <f>MAIN!C17</f>
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.5">
@@ -7989,21 +7965,21 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="C42" s="315" t="str">
+      <c r="C42" s="315">
         <f>MAIN!E20</f>
-        <v>Sub Div-3M</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="C43" s="315" t="str">
+      <c r="C43" s="315">
         <f>MAIN!E21</f>
-        <v xml:space="preserve">Sewa Bhawan </v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="C44" s="315" t="str">
+      <c r="C44" s="315">
         <f>MAIN!E22</f>
-        <v>New Delhi</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8047,27 +8023,27 @@
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
-      <c r="H1" s="408" t="s">
+      <c r="H1" s="380" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="408"/>
-      <c r="J1" s="408"/>
+      <c r="I1" s="380"/>
+      <c r="J1" s="380"/>
       <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="15.5">
-      <c r="A2" s="409">
+      <c r="A2" s="381">
         <f>MAIN!C8</f>
         <v>0</v>
       </c>
-      <c r="B2" s="409"/>
-      <c r="C2" s="409"/>
-      <c r="D2" s="409"/>
-      <c r="E2" s="409"/>
-      <c r="F2" s="409"/>
-      <c r="G2" s="409"/>
-      <c r="H2" s="409"/>
-      <c r="I2" s="409"/>
-      <c r="J2" s="409"/>
+      <c r="B2" s="381"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="381"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="381"/>
+      <c r="G2" s="381"/>
+      <c r="H2" s="381"/>
+      <c r="I2" s="381"/>
+      <c r="J2" s="381"/>
       <c r="K2" s="45"/>
     </row>
     <row r="3" spans="1:11">
@@ -8084,18 +8060,18 @@
       <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="410" t="s">
+      <c r="A4" s="382" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="410"/>
-      <c r="C4" s="410"/>
-      <c r="D4" s="410"/>
-      <c r="E4" s="410"/>
-      <c r="F4" s="410"/>
-      <c r="G4" s="410"/>
-      <c r="H4" s="410"/>
-      <c r="I4" s="410"/>
-      <c r="J4" s="410"/>
+      <c r="B4" s="382"/>
+      <c r="C4" s="382"/>
+      <c r="D4" s="382"/>
+      <c r="E4" s="382"/>
+      <c r="F4" s="382"/>
+      <c r="G4" s="382"/>
+      <c r="H4" s="382"/>
+      <c r="I4" s="382"/>
+      <c r="J4" s="382"/>
       <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11">
@@ -8197,59 +8173,59 @@
       <c r="K10" s="45"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="412" t="s">
+      <c r="A11" s="384" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="412"/>
-      <c r="C11" s="413">
+      <c r="B11" s="384"/>
+      <c r="C11" s="385">
         <f>MAIN!C3</f>
         <v>0</v>
       </c>
-      <c r="D11" s="413"/>
-      <c r="E11" s="413"/>
-      <c r="F11" s="413"/>
-      <c r="G11" s="413"/>
-      <c r="H11" s="413"/>
-      <c r="I11" s="413"/>
-      <c r="J11" s="413"/>
+      <c r="D11" s="385"/>
+      <c r="E11" s="385"/>
+      <c r="F11" s="385"/>
+      <c r="G11" s="385"/>
+      <c r="H11" s="385"/>
+      <c r="I11" s="385"/>
+      <c r="J11" s="385"/>
       <c r="K11" s="43"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="415" t="s">
+      <c r="A12" s="387" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="415"/>
-      <c r="C12" s="414">
+      <c r="B12" s="387"/>
+      <c r="C12" s="386">
         <f>MAIN!C10</f>
         <v>0</v>
       </c>
-      <c r="D12" s="414"/>
-      <c r="E12" s="414"/>
-      <c r="F12" s="414"/>
-      <c r="G12" s="414"/>
-      <c r="H12" s="414"/>
-      <c r="I12" s="414"/>
-      <c r="J12" s="414"/>
-      <c r="K12" s="414"/>
+      <c r="D12" s="386"/>
+      <c r="E12" s="386"/>
+      <c r="F12" s="386"/>
+      <c r="G12" s="386"/>
+      <c r="H12" s="386"/>
+      <c r="I12" s="386"/>
+      <c r="J12" s="386"/>
+      <c r="K12" s="386"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A13" s="415"/>
-      <c r="B13" s="415"/>
-      <c r="C13" s="414"/>
-      <c r="D13" s="414"/>
-      <c r="E13" s="414"/>
-      <c r="F13" s="414"/>
-      <c r="G13" s="414"/>
-      <c r="H13" s="414"/>
-      <c r="I13" s="414"/>
-      <c r="J13" s="414"/>
-      <c r="K13" s="414"/>
+      <c r="A13" s="387"/>
+      <c r="B13" s="387"/>
+      <c r="C13" s="386"/>
+      <c r="D13" s="386"/>
+      <c r="E13" s="386"/>
+      <c r="F13" s="386"/>
+      <c r="G13" s="386"/>
+      <c r="H13" s="386"/>
+      <c r="I13" s="386"/>
+      <c r="J13" s="386"/>
+      <c r="K13" s="386"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="408" t="s">
+      <c r="A14" s="380" t="s">
         <v>187</v>
       </c>
-      <c r="B14" s="408"/>
+      <c r="B14" s="380"/>
       <c r="C14" s="43">
         <f>MAIN!C8</f>
         <v>0</v>
@@ -8279,22 +8255,22 @@
       <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="412" t="s">
+      <c r="A16" s="384" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="412"/>
-      <c r="C16" s="413">
+      <c r="B16" s="384"/>
+      <c r="C16" s="385">
         <f>MAIN!C4</f>
         <v>0</v>
       </c>
-      <c r="D16" s="413"/>
-      <c r="E16" s="413"/>
-      <c r="F16" s="413"/>
-      <c r="G16" s="413"/>
-      <c r="H16" s="413"/>
-      <c r="I16" s="413"/>
-      <c r="J16" s="413"/>
-      <c r="K16" s="413"/>
+      <c r="D16" s="385"/>
+      <c r="E16" s="385"/>
+      <c r="F16" s="385"/>
+      <c r="G16" s="385"/>
+      <c r="H16" s="385"/>
+      <c r="I16" s="385"/>
+      <c r="J16" s="385"/>
+      <c r="K16" s="385"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="43"/>
@@ -8310,17 +8286,17 @@
       <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="412" t="s">
+      <c r="A18" s="384" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="412"/>
-      <c r="C18" s="412"/>
-      <c r="D18" s="412"/>
-      <c r="E18" s="416">
+      <c r="B18" s="384"/>
+      <c r="C18" s="384"/>
+      <c r="D18" s="384"/>
+      <c r="E18" s="388">
         <f>MAIN!C5</f>
         <v>0</v>
       </c>
-      <c r="F18" s="416"/>
+      <c r="F18" s="388"/>
       <c r="G18" s="43"/>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
@@ -8334,11 +8310,11 @@
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="416">
+      <c r="E19" s="388">
         <f>MAIN!C7</f>
         <v>0</v>
       </c>
-      <c r="F19" s="416"/>
+      <c r="F19" s="388"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
@@ -8359,18 +8335,18 @@
       <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="411" t="s">
+      <c r="A21" s="383" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="411"/>
-      <c r="C21" s="411"/>
-      <c r="D21" s="411"/>
-      <c r="E21" s="411"/>
-      <c r="F21" s="411"/>
-      <c r="G21" s="411"/>
-      <c r="H21" s="411"/>
-      <c r="I21" s="411"/>
-      <c r="J21" s="411"/>
+      <c r="B21" s="383"/>
+      <c r="C21" s="383"/>
+      <c r="D21" s="383"/>
+      <c r="E21" s="383"/>
+      <c r="F21" s="383"/>
+      <c r="G21" s="383"/>
+      <c r="H21" s="383"/>
+      <c r="I21" s="383"/>
+      <c r="J21" s="383"/>
       <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1">
@@ -8393,19 +8369,19 @@
       <c r="B23" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="405" t="s">
+      <c r="C23" s="392" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="405"/>
+      <c r="D23" s="392"/>
       <c r="E23" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="406" t="s">
+      <c r="F23" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="406"/>
-      <c r="H23" s="407"/>
-      <c r="I23" s="407"/>
+      <c r="G23" s="393"/>
+      <c r="H23" s="394"/>
+      <c r="I23" s="394"/>
       <c r="J23" s="90" t="s">
         <v>64</v>
       </c>
@@ -8414,17 +8390,17 @@
     <row r="24" spans="1:11">
       <c r="A24" s="91"/>
       <c r="B24" s="92"/>
-      <c r="C24" s="399"/>
-      <c r="D24" s="400"/>
+      <c r="C24" s="389"/>
+      <c r="D24" s="390"/>
       <c r="E24" s="93"/>
-      <c r="F24" s="404" t="s">
+      <c r="F24" s="391" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="404"/>
-      <c r="H24" s="404" t="s">
+      <c r="G24" s="391"/>
+      <c r="H24" s="391" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="404"/>
+      <c r="I24" s="391"/>
       <c r="J24" s="94"/>
       <c r="K24" s="43"/>
     </row>
@@ -8435,21 +8411,21 @@
       <c r="B25" s="96">
         <v>2</v>
       </c>
-      <c r="C25" s="381">
+      <c r="C25" s="395">
         <v>3</v>
       </c>
-      <c r="D25" s="381"/>
+      <c r="D25" s="395"/>
       <c r="E25" s="96">
         <v>4</v>
       </c>
-      <c r="F25" s="381">
+      <c r="F25" s="395">
         <v>5</v>
       </c>
-      <c r="G25" s="381"/>
-      <c r="H25" s="381">
+      <c r="G25" s="395"/>
+      <c r="H25" s="395">
         <v>6</v>
       </c>
-      <c r="I25" s="381"/>
+      <c r="I25" s="395"/>
       <c r="J25" s="97">
         <v>7</v>
       </c>
@@ -8481,23 +8457,23 @@
       <c r="K26" s="43"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="399" t="s">
+      <c r="A27" s="389" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="400"/>
-      <c r="C27" s="400"/>
-      <c r="D27" s="400"/>
-      <c r="E27" s="401"/>
-      <c r="F27" s="402">
+      <c r="B27" s="390"/>
+      <c r="C27" s="390"/>
+      <c r="D27" s="390"/>
+      <c r="E27" s="396"/>
+      <c r="F27" s="397">
         <f>MAIN!C17</f>
-        <v>15000</v>
-      </c>
-      <c r="G27" s="403"/>
-      <c r="H27" s="402">
+        <v>0</v>
+      </c>
+      <c r="G27" s="398"/>
+      <c r="H27" s="397">
         <f>MAIN!E17</f>
-        <v>7000</v>
-      </c>
-      <c r="I27" s="403"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="398"/>
       <c r="J27" s="102"/>
       <c r="K27" s="43"/>
     </row>
@@ -8519,15 +8495,15 @@
         <v>69</v>
       </c>
       <c r="B29" s="103"/>
-      <c r="C29" s="386" t="s">
+      <c r="C29" s="412" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="386"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="386"/>
-      <c r="G29" s="386"/>
-      <c r="H29" s="386"/>
-      <c r="I29" s="386"/>
+      <c r="D29" s="412"/>
+      <c r="E29" s="412"/>
+      <c r="F29" s="412"/>
+      <c r="G29" s="412"/>
+      <c r="H29" s="412"/>
+      <c r="I29" s="412"/>
       <c r="J29" s="103"/>
       <c r="K29" s="43"/>
     </row>
@@ -8548,102 +8524,102 @@
       <c r="A31" s="168">
         <v>1</v>
       </c>
-      <c r="B31" s="387" t="s">
+      <c r="B31" s="399" t="s">
         <v>217</v>
       </c>
-      <c r="C31" s="387"/>
-      <c r="D31" s="387"/>
-      <c r="E31" s="387"/>
-      <c r="F31" s="387"/>
-      <c r="G31" s="387"/>
-      <c r="H31" s="387"/>
-      <c r="I31" s="387"/>
-      <c r="J31" s="387"/>
+      <c r="C31" s="399"/>
+      <c r="D31" s="399"/>
+      <c r="E31" s="399"/>
+      <c r="F31" s="399"/>
+      <c r="G31" s="399"/>
+      <c r="H31" s="399"/>
+      <c r="I31" s="399"/>
+      <c r="J31" s="399"/>
       <c r="K31" s="43"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
       <c r="A32" s="168">
         <v>2</v>
       </c>
-      <c r="B32" s="387" t="s">
+      <c r="B32" s="399" t="s">
         <v>218</v>
       </c>
-      <c r="C32" s="387"/>
-      <c r="D32" s="387"/>
-      <c r="E32" s="387"/>
-      <c r="F32" s="387"/>
-      <c r="G32" s="387"/>
-      <c r="H32" s="387"/>
-      <c r="I32" s="387"/>
-      <c r="J32" s="387"/>
+      <c r="C32" s="399"/>
+      <c r="D32" s="399"/>
+      <c r="E32" s="399"/>
+      <c r="F32" s="399"/>
+      <c r="G32" s="399"/>
+      <c r="H32" s="399"/>
+      <c r="I32" s="399"/>
+      <c r="J32" s="399"/>
       <c r="K32" s="43"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
       <c r="A33" s="168">
         <v>3</v>
       </c>
-      <c r="B33" s="387" t="s">
+      <c r="B33" s="399" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="387"/>
-      <c r="D33" s="387"/>
-      <c r="E33" s="387"/>
-      <c r="F33" s="387"/>
-      <c r="G33" s="387"/>
-      <c r="H33" s="387"/>
-      <c r="I33" s="387"/>
-      <c r="J33" s="387"/>
+      <c r="C33" s="399"/>
+      <c r="D33" s="399"/>
+      <c r="E33" s="399"/>
+      <c r="F33" s="399"/>
+      <c r="G33" s="399"/>
+      <c r="H33" s="399"/>
+      <c r="I33" s="399"/>
+      <c r="J33" s="399"/>
       <c r="K33" s="43"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
       <c r="A34" s="168">
         <v>4</v>
       </c>
-      <c r="B34" s="387" t="s">
+      <c r="B34" s="399" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="387"/>
-      <c r="D34" s="387"/>
-      <c r="E34" s="387"/>
-      <c r="F34" s="387"/>
-      <c r="G34" s="387"/>
-      <c r="H34" s="387"/>
-      <c r="I34" s="387"/>
-      <c r="J34" s="387"/>
+      <c r="C34" s="399"/>
+      <c r="D34" s="399"/>
+      <c r="E34" s="399"/>
+      <c r="F34" s="399"/>
+      <c r="G34" s="399"/>
+      <c r="H34" s="399"/>
+      <c r="I34" s="399"/>
+      <c r="J34" s="399"/>
       <c r="K34" s="43"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
       <c r="A35" s="168">
         <v>5</v>
       </c>
-      <c r="B35" s="387" t="s">
+      <c r="B35" s="399" t="s">
         <v>312</v>
       </c>
-      <c r="C35" s="387"/>
-      <c r="D35" s="387"/>
-      <c r="E35" s="387"/>
-      <c r="F35" s="387"/>
-      <c r="G35" s="387"/>
-      <c r="H35" s="387"/>
-      <c r="I35" s="387"/>
-      <c r="J35" s="387"/>
+      <c r="C35" s="399"/>
+      <c r="D35" s="399"/>
+      <c r="E35" s="399"/>
+      <c r="F35" s="399"/>
+      <c r="G35" s="399"/>
+      <c r="H35" s="399"/>
+      <c r="I35" s="399"/>
+      <c r="J35" s="399"/>
       <c r="K35" s="43"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
       <c r="A36" s="168">
         <v>6</v>
       </c>
-      <c r="B36" s="387" t="s">
+      <c r="B36" s="399" t="s">
         <v>313</v>
       </c>
-      <c r="C36" s="387"/>
-      <c r="D36" s="387"/>
-      <c r="E36" s="387"/>
-      <c r="F36" s="387"/>
-      <c r="G36" s="387"/>
-      <c r="H36" s="387"/>
-      <c r="I36" s="387"/>
-      <c r="J36" s="387"/>
+      <c r="C36" s="399"/>
+      <c r="D36" s="399"/>
+      <c r="E36" s="399"/>
+      <c r="F36" s="399"/>
+      <c r="G36" s="399"/>
+      <c r="H36" s="399"/>
+      <c r="I36" s="399"/>
+      <c r="J36" s="399"/>
       <c r="K36" s="43"/>
     </row>
     <row r="37" spans="1:11" ht="8.25" customHeight="1">
@@ -8673,16 +8649,16 @@
       <c r="K38" s="43"/>
     </row>
     <row r="39" spans="1:11" ht="12.75" hidden="1" customHeight="1">
-      <c r="A39" s="398"/>
-      <c r="B39" s="398"/>
-      <c r="C39" s="398"/>
-      <c r="D39" s="398"/>
-      <c r="E39" s="398"/>
-      <c r="F39" s="398"/>
-      <c r="G39" s="398"/>
-      <c r="H39" s="398"/>
-      <c r="I39" s="398"/>
-      <c r="J39" s="398"/>
+      <c r="A39" s="411"/>
+      <c r="B39" s="411"/>
+      <c r="C39" s="411"/>
+      <c r="D39" s="411"/>
+      <c r="E39" s="411"/>
+      <c r="F39" s="411"/>
+      <c r="G39" s="411"/>
+      <c r="H39" s="411"/>
+      <c r="I39" s="411"/>
+      <c r="J39" s="411"/>
       <c r="K39" s="43"/>
     </row>
     <row r="40" spans="1:11" hidden="1">
@@ -8732,16 +8708,16 @@
       <c r="C43" s="103"/>
       <c r="D43" s="103"/>
       <c r="E43" s="103"/>
-      <c r="F43" s="380">
+      <c r="F43" s="413">
         <f>F27</f>
-        <v>15000</v>
-      </c>
-      <c r="G43" s="380"/>
-      <c r="H43" s="380">
+        <v>0</v>
+      </c>
+      <c r="G43" s="413"/>
+      <c r="H43" s="413">
         <f>H27</f>
-        <v>7000</v>
-      </c>
-      <c r="I43" s="380"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="413"/>
       <c r="J43" s="103"/>
       <c r="K43" s="43"/>
     </row>
@@ -8765,21 +8741,21 @@
       <c r="B45" s="96">
         <v>2</v>
       </c>
-      <c r="C45" s="381">
+      <c r="C45" s="395">
         <v>3</v>
       </c>
-      <c r="D45" s="381"/>
+      <c r="D45" s="395"/>
       <c r="E45" s="96">
         <v>4</v>
       </c>
-      <c r="F45" s="381">
+      <c r="F45" s="395">
         <v>5</v>
       </c>
-      <c r="G45" s="381"/>
-      <c r="H45" s="381">
+      <c r="G45" s="395"/>
+      <c r="H45" s="395">
         <v>6</v>
       </c>
-      <c r="I45" s="381"/>
+      <c r="I45" s="395"/>
       <c r="J45" s="96">
         <v>7</v>
       </c>
@@ -8829,16 +8805,16 @@
       <c r="C48" s="115"/>
       <c r="D48" s="115"/>
       <c r="E48" s="115"/>
-      <c r="F48" s="384">
+      <c r="F48" s="415">
         <f>F43</f>
-        <v>15000</v>
-      </c>
-      <c r="G48" s="385"/>
-      <c r="H48" s="384">
+        <v>0</v>
+      </c>
+      <c r="G48" s="416"/>
+      <c r="H48" s="415">
         <f>H43</f>
-        <v>7000</v>
-      </c>
-      <c r="I48" s="385"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="416"/>
       <c r="J48" s="116"/>
       <c r="K48" s="43"/>
     </row>
@@ -8970,16 +8946,16 @@
       <c r="C58" s="103"/>
       <c r="D58" s="103"/>
       <c r="E58" s="103"/>
-      <c r="F58" s="382">
+      <c r="F58" s="414">
         <f>F48</f>
-        <v>15000</v>
-      </c>
-      <c r="G58" s="382"/>
-      <c r="H58" s="380">
+        <v>0</v>
+      </c>
+      <c r="G58" s="414"/>
+      <c r="H58" s="413">
         <f>+H48</f>
-        <v>7000</v>
-      </c>
-      <c r="I58" s="380"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="413"/>
       <c r="J58" s="124"/>
       <c r="K58" s="43"/>
     </row>
@@ -8991,15 +8967,15 @@
       <c r="C59" s="103"/>
       <c r="D59" s="103"/>
       <c r="E59" s="103"/>
-      <c r="F59" s="382">
+      <c r="F59" s="414">
         <f>MAIN!D17</f>
-        <v>8000</v>
-      </c>
-      <c r="G59" s="382"/>
-      <c r="H59" s="383" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="414"/>
+      <c r="H59" s="410" t="s">
         <v>39</v>
       </c>
-      <c r="I59" s="383"/>
+      <c r="I59" s="410"/>
       <c r="J59" s="124"/>
       <c r="K59" s="43"/>
     </row>
@@ -9011,16 +8987,16 @@
       <c r="C60" s="103"/>
       <c r="D60" s="103"/>
       <c r="E60" s="103"/>
-      <c r="F60" s="380">
+      <c r="F60" s="413">
         <f>SUM(F58-F59)</f>
-        <v>7000</v>
-      </c>
-      <c r="G60" s="380"/>
-      <c r="H60" s="380">
+        <v>0</v>
+      </c>
+      <c r="G60" s="413"/>
+      <c r="H60" s="413">
         <f>+H48</f>
-        <v>7000</v>
-      </c>
-      <c r="I60" s="380"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="413"/>
       <c r="J60" s="124"/>
       <c r="K60" s="43"/>
     </row>
@@ -9030,16 +9006,16 @@
       <c r="C61" s="103"/>
       <c r="D61" s="103"/>
       <c r="E61" s="103"/>
-      <c r="F61" s="383">
+      <c r="F61" s="410">
         <f>ROUND(F60,0)</f>
-        <v>7000</v>
-      </c>
-      <c r="G61" s="383"/>
-      <c r="H61" s="383">
+        <v>0</v>
+      </c>
+      <c r="G61" s="410"/>
+      <c r="H61" s="410">
         <f>ROUND(H60,0)</f>
-        <v>7000</v>
-      </c>
-      <c r="I61" s="383"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="410"/>
       <c r="J61" s="124"/>
       <c r="K61" s="43"/>
     </row>
@@ -9050,7 +9026,7 @@
       <c r="B62" s="103"/>
       <c r="C62" s="103" t="str">
         <f>CONCATENATE("(Rupees ",MAIN!E18,")")</f>
-        <v>(Rupees Rs. Seven Thousand Only)</v>
+        <v>(Rupees )</v>
       </c>
       <c r="D62" s="103"/>
       <c r="E62" s="103"/>
@@ -9346,9 +9322,9 @@
       <c r="F82" s="43"/>
       <c r="G82" s="43"/>
       <c r="H82" s="129"/>
-      <c r="I82" s="316" t="str">
+      <c r="I82" s="316">
         <f>MAIN!E20</f>
-        <v>Sub Div-3M</v>
+        <v>0</v>
       </c>
       <c r="J82" s="43"/>
       <c r="K82" s="43"/>
@@ -9364,9 +9340,9 @@
       <c r="F83" s="43"/>
       <c r="G83" s="103"/>
       <c r="H83" s="129"/>
-      <c r="I83" s="316" t="str">
+      <c r="I83" s="316">
         <f>MAIN!E21</f>
-        <v xml:space="preserve">Sewa Bhawan </v>
+        <v>0</v>
       </c>
       <c r="J83" s="43"/>
       <c r="K83" s="43"/>
@@ -9380,9 +9356,9 @@
       <c r="F84" s="103"/>
       <c r="G84" s="103"/>
       <c r="H84" s="129"/>
-      <c r="I84" s="316" t="str">
+      <c r="I84" s="316">
         <f>MAIN!E22</f>
-        <v>New Delhi</v>
+        <v>0</v>
       </c>
       <c r="J84" s="43"/>
       <c r="K84" s="43"/>
@@ -9480,19 +9456,19 @@
       <c r="K90" s="43"/>
     </row>
     <row r="91" spans="1:11" ht="33" customHeight="1">
-      <c r="A91" s="391" t="s">
+      <c r="A91" s="403" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="391"/>
-      <c r="C91" s="391"/>
-      <c r="D91" s="391"/>
-      <c r="E91" s="391"/>
-      <c r="F91" s="391"/>
-      <c r="G91" s="391"/>
-      <c r="H91" s="391"/>
-      <c r="I91" s="391"/>
-      <c r="J91" s="391"/>
-      <c r="K91" s="391"/>
+      <c r="B91" s="403"/>
+      <c r="C91" s="403"/>
+      <c r="D91" s="403"/>
+      <c r="E91" s="403"/>
+      <c r="F91" s="403"/>
+      <c r="G91" s="403"/>
+      <c r="H91" s="403"/>
+      <c r="I91" s="403"/>
+      <c r="J91" s="403"/>
+      <c r="K91" s="403"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="133" t="s">
@@ -9510,19 +9486,19 @@
       <c r="K92" s="43"/>
     </row>
     <row r="93" spans="1:11" ht="15" thickBot="1">
-      <c r="A93" s="392" t="s">
+      <c r="A93" s="404" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="392"/>
-      <c r="C93" s="392"/>
-      <c r="D93" s="392"/>
-      <c r="E93" s="392"/>
-      <c r="F93" s="392"/>
-      <c r="G93" s="392"/>
-      <c r="H93" s="392"/>
-      <c r="I93" s="392"/>
-      <c r="J93" s="393"/>
-      <c r="K93" s="393"/>
+      <c r="B93" s="404"/>
+      <c r="C93" s="404"/>
+      <c r="D93" s="404"/>
+      <c r="E93" s="404"/>
+      <c r="F93" s="404"/>
+      <c r="G93" s="404"/>
+      <c r="H93" s="404"/>
+      <c r="I93" s="404"/>
+      <c r="J93" s="405"/>
+      <c r="K93" s="405"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="43" t="s">
@@ -9763,10 +9739,10 @@
       <c r="K109" s="141"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="394" t="s">
+      <c r="A110" s="406" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="395"/>
+      <c r="B110" s="407"/>
       <c r="C110" s="43" t="s">
         <v>111</v>
       </c>
@@ -10071,13 +10047,13 @@
     <row r="130" spans="1:11" ht="15" thickBot="1">
       <c r="A130" s="144"/>
       <c r="B130" s="141"/>
-      <c r="C130" s="396" t="s">
+      <c r="C130" s="408" t="s">
         <v>129</v>
       </c>
-      <c r="D130" s="397"/>
-      <c r="E130" s="397"/>
-      <c r="F130" s="397"/>
-      <c r="G130" s="397"/>
+      <c r="D130" s="409"/>
+      <c r="E130" s="409"/>
+      <c r="F130" s="409"/>
+      <c r="G130" s="409"/>
       <c r="H130" s="137"/>
       <c r="I130" s="136"/>
       <c r="J130" s="103"/>
@@ -10086,13 +10062,13 @@
     <row r="131" spans="1:11" ht="15" thickBot="1">
       <c r="A131" s="144"/>
       <c r="B131" s="141"/>
-      <c r="C131" s="396" t="s">
+      <c r="C131" s="408" t="s">
         <v>130</v>
       </c>
-      <c r="D131" s="397"/>
-      <c r="E131" s="397"/>
-      <c r="F131" s="397"/>
-      <c r="G131" s="397"/>
+      <c r="D131" s="409"/>
+      <c r="E131" s="409"/>
+      <c r="F131" s="409"/>
+      <c r="G131" s="409"/>
       <c r="H131" s="142"/>
       <c r="I131" s="142"/>
       <c r="J131" s="132"/>
@@ -10389,19 +10365,19 @@
       <c r="K151" s="43"/>
     </row>
     <row r="152" spans="1:11" ht="39" customHeight="1">
-      <c r="A152" s="391" t="s">
+      <c r="A152" s="403" t="s">
         <v>146</v>
       </c>
-      <c r="B152" s="391"/>
-      <c r="C152" s="391"/>
-      <c r="D152" s="391"/>
-      <c r="E152" s="391"/>
-      <c r="F152" s="391"/>
-      <c r="G152" s="391"/>
-      <c r="H152" s="391"/>
-      <c r="I152" s="391"/>
-      <c r="J152" s="391"/>
-      <c r="K152" s="391"/>
+      <c r="B152" s="403"/>
+      <c r="C152" s="403"/>
+      <c r="D152" s="403"/>
+      <c r="E152" s="403"/>
+      <c r="F152" s="403"/>
+      <c r="G152" s="403"/>
+      <c r="H152" s="403"/>
+      <c r="I152" s="403"/>
+      <c r="J152" s="403"/>
+      <c r="K152" s="403"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="43" t="s">
@@ -10488,19 +10464,19 @@
       <c r="K158" s="43"/>
     </row>
     <row r="159" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A159" s="391" t="s">
+      <c r="A159" s="403" t="s">
         <v>150</v>
       </c>
-      <c r="B159" s="391"/>
-      <c r="C159" s="391"/>
-      <c r="D159" s="391"/>
-      <c r="E159" s="391"/>
-      <c r="F159" s="391"/>
-      <c r="G159" s="391"/>
-      <c r="H159" s="391"/>
-      <c r="I159" s="391"/>
-      <c r="J159" s="391"/>
-      <c r="K159" s="391"/>
+      <c r="B159" s="403"/>
+      <c r="C159" s="403"/>
+      <c r="D159" s="403"/>
+      <c r="E159" s="403"/>
+      <c r="F159" s="403"/>
+      <c r="G159" s="403"/>
+      <c r="H159" s="403"/>
+      <c r="I159" s="403"/>
+      <c r="J159" s="403"/>
+      <c r="K159" s="403"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="43" t="s">
@@ -10546,19 +10522,19 @@
       <c r="K162" s="43"/>
     </row>
     <row r="163" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A163" s="391" t="s">
+      <c r="A163" s="403" t="s">
         <v>153</v>
       </c>
-      <c r="B163" s="391"/>
-      <c r="C163" s="391"/>
-      <c r="D163" s="391"/>
-      <c r="E163" s="391"/>
-      <c r="F163" s="391"/>
-      <c r="G163" s="391"/>
-      <c r="H163" s="391"/>
-      <c r="I163" s="391"/>
-      <c r="J163" s="391"/>
-      <c r="K163" s="391"/>
+      <c r="B163" s="403"/>
+      <c r="C163" s="403"/>
+      <c r="D163" s="403"/>
+      <c r="E163" s="403"/>
+      <c r="F163" s="403"/>
+      <c r="G163" s="403"/>
+      <c r="H163" s="403"/>
+      <c r="I163" s="403"/>
+      <c r="J163" s="403"/>
+      <c r="K163" s="403"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="43" t="s">
@@ -10615,19 +10591,19 @@
       <c r="K167" s="43"/>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="388" t="s">
+      <c r="A168" s="400" t="s">
         <v>155</v>
       </c>
-      <c r="B168" s="389"/>
-      <c r="C168" s="389"/>
-      <c r="D168" s="389"/>
-      <c r="E168" s="389"/>
-      <c r="F168" s="389"/>
-      <c r="G168" s="389"/>
-      <c r="H168" s="389"/>
-      <c r="I168" s="389"/>
-      <c r="J168" s="389"/>
-      <c r="K168" s="390"/>
+      <c r="B168" s="401"/>
+      <c r="C168" s="401"/>
+      <c r="D168" s="401"/>
+      <c r="E168" s="401"/>
+      <c r="F168" s="401"/>
+      <c r="G168" s="401"/>
+      <c r="H168" s="401"/>
+      <c r="I168" s="401"/>
+      <c r="J168" s="401"/>
+      <c r="K168" s="402"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="123"/>
@@ -10701,19 +10677,19 @@
       <c r="K173" s="141"/>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="388" t="s">
+      <c r="A174" s="400" t="s">
         <v>157</v>
       </c>
-      <c r="B174" s="389"/>
-      <c r="C174" s="389"/>
-      <c r="D174" s="389"/>
-      <c r="E174" s="389"/>
-      <c r="F174" s="389"/>
-      <c r="G174" s="389"/>
-      <c r="H174" s="389"/>
-      <c r="I174" s="389"/>
-      <c r="J174" s="389"/>
-      <c r="K174" s="390"/>
+      <c r="B174" s="401"/>
+      <c r="C174" s="401"/>
+      <c r="D174" s="401"/>
+      <c r="E174" s="401"/>
+      <c r="F174" s="401"/>
+      <c r="G174" s="401"/>
+      <c r="H174" s="401"/>
+      <c r="I174" s="401"/>
+      <c r="J174" s="401"/>
+      <c r="K174" s="402"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="123"/>
@@ -10831,31 +10807,23 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:K13"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B34:J34"/>
     <mergeCell ref="B35:J35"/>
     <mergeCell ref="B36:J36"/>
     <mergeCell ref="A174:K174"/>
@@ -10872,23 +10840,31 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="A39:J39"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:K13"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="96" orientation="portrait" r:id="rId1"/>
@@ -10941,18 +10917,18 @@
       <c r="A1" s="276" t="s">
         <v>336</v>
       </c>
-      <c r="G1" s="417" t="s">
+      <c r="G1" s="483" t="s">
         <v>337</v>
       </c>
-      <c r="H1" s="417"/>
-      <c r="I1" s="417"/>
-      <c r="J1" s="417"/>
-      <c r="K1" s="417"/>
-      <c r="L1" s="417"/>
-      <c r="M1" s="417"/>
-      <c r="N1" s="417"/>
-      <c r="O1" s="417"/>
-      <c r="P1" s="417"/>
+      <c r="H1" s="483"/>
+      <c r="I1" s="483"/>
+      <c r="J1" s="483"/>
+      <c r="K1" s="483"/>
+      <c r="L1" s="483"/>
+      <c r="M1" s="483"/>
+      <c r="N1" s="483"/>
+      <c r="O1" s="483"/>
+      <c r="P1" s="483"/>
       <c r="S1" s="276" t="s">
         <v>338</v>
       </c>
@@ -10965,52 +10941,52 @@
         <f>MAIN!C13</f>
         <v>0</v>
       </c>
-      <c r="G2" s="418" t="s">
+      <c r="G2" s="484" t="s">
         <v>339</v>
       </c>
-      <c r="H2" s="418"/>
-      <c r="I2" s="418"/>
-      <c r="J2" s="418"/>
-      <c r="K2" s="418"/>
-      <c r="L2" s="418"/>
-      <c r="M2" s="418"/>
-      <c r="N2" s="418"/>
-      <c r="O2" s="418"/>
-      <c r="P2" s="418"/>
+      <c r="H2" s="484"/>
+      <c r="I2" s="484"/>
+      <c r="J2" s="484"/>
+      <c r="K2" s="484"/>
+      <c r="L2" s="484"/>
+      <c r="M2" s="484"/>
+      <c r="N2" s="484"/>
+      <c r="O2" s="484"/>
+      <c r="P2" s="484"/>
       <c r="S2" s="277" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.5">
-      <c r="G3" s="419" t="s">
+      <c r="G3" s="485" t="s">
         <v>341</v>
       </c>
-      <c r="H3" s="419"/>
-      <c r="I3" s="419"/>
-      <c r="J3" s="419"/>
-      <c r="K3" s="419"/>
-      <c r="L3" s="419"/>
-      <c r="M3" s="419"/>
-      <c r="N3" s="419"/>
-      <c r="O3" s="419"/>
-      <c r="P3" s="419"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="485"/>
+      <c r="J3" s="485"/>
+      <c r="K3" s="485"/>
+      <c r="L3" s="485"/>
+      <c r="M3" s="485"/>
+      <c r="N3" s="485"/>
+      <c r="O3" s="485"/>
+      <c r="P3" s="485"/>
       <c r="R3" s="276" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="G4" s="418" t="s">
+      <c r="G4" s="484" t="s">
         <v>343</v>
       </c>
-      <c r="H4" s="418"/>
-      <c r="I4" s="418"/>
-      <c r="J4" s="418"/>
-      <c r="K4" s="418"/>
-      <c r="L4" s="418"/>
-      <c r="M4" s="418"/>
-      <c r="N4" s="418"/>
-      <c r="O4" s="418"/>
-      <c r="P4" s="418"/>
+      <c r="H4" s="484"/>
+      <c r="I4" s="484"/>
+      <c r="J4" s="484"/>
+      <c r="K4" s="484"/>
+      <c r="L4" s="484"/>
+      <c r="M4" s="484"/>
+      <c r="N4" s="484"/>
+      <c r="O4" s="484"/>
+      <c r="P4" s="484"/>
       <c r="R4" s="277" t="s">
         <v>344</v>
       </c>
@@ -11051,24 +11027,24 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A10" s="420" t="str">
+      <c r="A10" s="486" t="str">
         <f>CONCATENATE("Name of Work : ",MAIN!C10)</f>
         <v xml:space="preserve">Name of Work : </v>
       </c>
-      <c r="B10" s="420"/>
-      <c r="C10" s="420"/>
-      <c r="D10" s="420"/>
-      <c r="E10" s="420"/>
-      <c r="F10" s="420"/>
-      <c r="G10" s="420"/>
-      <c r="H10" s="420"/>
-      <c r="I10" s="420"/>
-      <c r="J10" s="420"/>
-      <c r="K10" s="420"/>
-      <c r="L10" s="420"/>
-      <c r="M10" s="420"/>
-      <c r="N10" s="420"/>
-      <c r="O10" s="420"/>
+      <c r="B10" s="486"/>
+      <c r="C10" s="486"/>
+      <c r="D10" s="486"/>
+      <c r="E10" s="486"/>
+      <c r="F10" s="486"/>
+      <c r="G10" s="486"/>
+      <c r="H10" s="486"/>
+      <c r="I10" s="486"/>
+      <c r="J10" s="486"/>
+      <c r="K10" s="486"/>
+      <c r="L10" s="486"/>
+      <c r="M10" s="486"/>
+      <c r="N10" s="486"/>
+      <c r="O10" s="486"/>
       <c r="P10" s="277" t="s">
         <v>352</v>
       </c>
@@ -11077,100 +11053,100 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="75" customHeight="1" thickBot="1">
-      <c r="A11" s="438" t="s">
+      <c r="A11" s="469" t="s">
         <v>354</v>
       </c>
-      <c r="B11" s="439"/>
-      <c r="C11" s="438" t="s">
+      <c r="B11" s="470"/>
+      <c r="C11" s="469" t="s">
         <v>355</v>
       </c>
-      <c r="D11" s="442"/>
-      <c r="E11" s="439"/>
-      <c r="F11" s="444" t="s">
+      <c r="D11" s="473"/>
+      <c r="E11" s="470"/>
+      <c r="F11" s="475" t="s">
         <v>356</v>
       </c>
-      <c r="G11" s="445"/>
-      <c r="H11" s="446"/>
-      <c r="I11" s="450" t="s">
+      <c r="G11" s="476"/>
+      <c r="H11" s="477"/>
+      <c r="I11" s="481" t="s">
         <v>357</v>
       </c>
-      <c r="J11" s="451"/>
-      <c r="K11" s="429" t="s">
+      <c r="J11" s="482"/>
+      <c r="K11" s="460" t="s">
         <v>358</v>
       </c>
-      <c r="L11" s="429" t="s">
+      <c r="L11" s="460" t="s">
         <v>359</v>
       </c>
-      <c r="M11" s="429" t="s">
+      <c r="M11" s="460" t="s">
         <v>360</v>
       </c>
-      <c r="N11" s="431" t="s">
+      <c r="N11" s="462" t="s">
         <v>361</v>
       </c>
-      <c r="O11" s="432"/>
-      <c r="P11" s="433" t="s">
+      <c r="O11" s="463"/>
+      <c r="P11" s="464" t="s">
         <v>362</v>
       </c>
-      <c r="Q11" s="434"/>
-      <c r="R11" s="429" t="s">
+      <c r="Q11" s="465"/>
+      <c r="R11" s="460" t="s">
         <v>363</v>
       </c>
-      <c r="S11" s="421" t="s">
+      <c r="S11" s="452" t="s">
         <v>364</v>
       </c>
-      <c r="T11" s="422"/>
-      <c r="U11" s="423"/>
+      <c r="T11" s="453"/>
+      <c r="U11" s="454"/>
     </row>
     <row r="12" spans="1:21" ht="127.5" customHeight="1" thickBot="1">
-      <c r="A12" s="440"/>
-      <c r="B12" s="441"/>
-      <c r="C12" s="440"/>
-      <c r="D12" s="443"/>
-      <c r="E12" s="441"/>
-      <c r="F12" s="447"/>
-      <c r="G12" s="448"/>
-      <c r="H12" s="449"/>
+      <c r="A12" s="471"/>
+      <c r="B12" s="472"/>
+      <c r="C12" s="471"/>
+      <c r="D12" s="474"/>
+      <c r="E12" s="472"/>
+      <c r="F12" s="478"/>
+      <c r="G12" s="479"/>
+      <c r="H12" s="480"/>
       <c r="I12" s="280" t="s">
         <v>365</v>
       </c>
       <c r="J12" s="281" t="s">
         <v>366</v>
       </c>
-      <c r="K12" s="430"/>
-      <c r="L12" s="430"/>
-      <c r="M12" s="430"/>
+      <c r="K12" s="461"/>
+      <c r="L12" s="461"/>
+      <c r="M12" s="461"/>
       <c r="N12" s="282" t="s">
         <v>367</v>
       </c>
       <c r="O12" s="282" t="s">
         <v>368</v>
       </c>
-      <c r="P12" s="435"/>
-      <c r="Q12" s="436"/>
-      <c r="R12" s="437"/>
-      <c r="S12" s="424" t="s">
+      <c r="P12" s="466"/>
+      <c r="Q12" s="467"/>
+      <c r="R12" s="468"/>
+      <c r="S12" s="455" t="s">
         <v>369</v>
       </c>
-      <c r="T12" s="425"/>
+      <c r="T12" s="456"/>
       <c r="U12" s="283" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="14.5" thickBot="1">
-      <c r="A13" s="426">
+      <c r="A13" s="457">
         <v>1</v>
       </c>
-      <c r="B13" s="427"/>
-      <c r="C13" s="426">
+      <c r="B13" s="458"/>
+      <c r="C13" s="457">
         <v>2</v>
       </c>
-      <c r="D13" s="428"/>
-      <c r="E13" s="427"/>
-      <c r="F13" s="426">
+      <c r="D13" s="459"/>
+      <c r="E13" s="458"/>
+      <c r="F13" s="457">
         <v>3</v>
       </c>
-      <c r="G13" s="428"/>
-      <c r="H13" s="428"/>
+      <c r="G13" s="459"/>
+      <c r="H13" s="459"/>
       <c r="I13" s="284">
         <v>4</v>
       </c>
@@ -11201,20 +11177,20 @@
       <c r="R13" s="284">
         <v>13</v>
       </c>
-      <c r="S13" s="426">
+      <c r="S13" s="457">
         <v>14</v>
       </c>
-      <c r="T13" s="427"/>
+      <c r="T13" s="458"/>
       <c r="U13" s="286">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="42" customHeight="1" thickBot="1">
-      <c r="A14" s="452"/>
-      <c r="B14" s="453"/>
-      <c r="C14" s="454"/>
-      <c r="D14" s="455"/>
-      <c r="E14" s="456"/>
+      <c r="A14" s="430"/>
+      <c r="B14" s="431"/>
+      <c r="C14" s="432"/>
+      <c r="D14" s="433"/>
+      <c r="E14" s="434"/>
       <c r="F14" s="288" t="s">
         <v>371</v>
       </c>
@@ -11240,415 +11216,415 @@
       <c r="P14" s="284"/>
       <c r="Q14" s="284"/>
       <c r="R14" s="284"/>
-      <c r="S14" s="454"/>
-      <c r="T14" s="456"/>
+      <c r="S14" s="432"/>
+      <c r="T14" s="434"/>
       <c r="U14" s="284"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1">
-      <c r="A15" s="470">
+      <c r="A15" s="446">
         <f>MAIN!C3</f>
         <v>0</v>
       </c>
-      <c r="B15" s="473">
+      <c r="B15" s="449">
         <f>MAIN!C4</f>
         <v>0</v>
       </c>
-      <c r="C15" s="457" t="s">
+      <c r="C15" s="435" t="s">
         <v>377</v>
       </c>
-      <c r="D15" s="458"/>
-      <c r="E15" s="459"/>
-      <c r="F15" s="468"/>
-      <c r="G15" s="468"/>
-      <c r="H15" s="468"/>
-      <c r="I15" s="479">
+      <c r="D15" s="436"/>
+      <c r="E15" s="437"/>
+      <c r="F15" s="423"/>
+      <c r="G15" s="423"/>
+      <c r="H15" s="423"/>
+      <c r="I15" s="428">
         <f>MAIN!C5</f>
         <v>0</v>
       </c>
-      <c r="J15" s="479">
+      <c r="J15" s="428">
         <f>MAIN!C7</f>
         <v>0</v>
       </c>
-      <c r="K15" s="457" t="s">
+      <c r="K15" s="435" t="s">
         <v>377</v>
       </c>
-      <c r="L15" s="458"/>
-      <c r="M15" s="459"/>
-      <c r="N15" s="463">
+      <c r="L15" s="436"/>
+      <c r="M15" s="437"/>
+      <c r="N15" s="441">
         <f>MAIN!E17</f>
-        <v>7000</v>
-      </c>
-      <c r="O15" s="465" t="str">
+        <v>0</v>
+      </c>
+      <c r="O15" s="443">
         <f>MAIN!E18</f>
-        <v>Rs. Seven Thousand Only</v>
-      </c>
-      <c r="P15" s="468"/>
-      <c r="Q15" s="468"/>
-      <c r="R15" s="468"/>
-      <c r="S15" s="457"/>
-      <c r="T15" s="459"/>
-      <c r="U15" s="468"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="423"/>
+      <c r="Q15" s="423"/>
+      <c r="R15" s="423"/>
+      <c r="S15" s="435"/>
+      <c r="T15" s="437"/>
+      <c r="U15" s="423"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="471"/>
-      <c r="B16" s="474"/>
-      <c r="C16" s="457"/>
-      <c r="D16" s="458"/>
-      <c r="E16" s="459"/>
-      <c r="F16" s="468"/>
-      <c r="G16" s="468"/>
-      <c r="H16" s="468"/>
-      <c r="I16" s="479"/>
-      <c r="J16" s="479"/>
-      <c r="K16" s="457"/>
-      <c r="L16" s="458"/>
-      <c r="M16" s="459"/>
-      <c r="N16" s="463"/>
-      <c r="O16" s="466"/>
-      <c r="P16" s="468"/>
-      <c r="Q16" s="468"/>
-      <c r="R16" s="468"/>
-      <c r="S16" s="457"/>
-      <c r="T16" s="459"/>
-      <c r="U16" s="468"/>
+      <c r="A16" s="447"/>
+      <c r="B16" s="450"/>
+      <c r="C16" s="435"/>
+      <c r="D16" s="436"/>
+      <c r="E16" s="437"/>
+      <c r="F16" s="423"/>
+      <c r="G16" s="423"/>
+      <c r="H16" s="423"/>
+      <c r="I16" s="428"/>
+      <c r="J16" s="428"/>
+      <c r="K16" s="435"/>
+      <c r="L16" s="436"/>
+      <c r="M16" s="437"/>
+      <c r="N16" s="441"/>
+      <c r="O16" s="444"/>
+      <c r="P16" s="423"/>
+      <c r="Q16" s="423"/>
+      <c r="R16" s="423"/>
+      <c r="S16" s="435"/>
+      <c r="T16" s="437"/>
+      <c r="U16" s="423"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="471"/>
-      <c r="B17" s="474"/>
-      <c r="C17" s="457"/>
-      <c r="D17" s="458"/>
-      <c r="E17" s="459"/>
-      <c r="F17" s="468"/>
-      <c r="G17" s="468"/>
-      <c r="H17" s="468"/>
-      <c r="I17" s="479"/>
-      <c r="J17" s="479"/>
-      <c r="K17" s="457"/>
-      <c r="L17" s="458"/>
-      <c r="M17" s="459"/>
-      <c r="N17" s="463"/>
-      <c r="O17" s="466"/>
-      <c r="P17" s="468"/>
-      <c r="Q17" s="468"/>
-      <c r="R17" s="468"/>
-      <c r="S17" s="457"/>
-      <c r="T17" s="459"/>
-      <c r="U17" s="468"/>
+      <c r="A17" s="447"/>
+      <c r="B17" s="450"/>
+      <c r="C17" s="435"/>
+      <c r="D17" s="436"/>
+      <c r="E17" s="437"/>
+      <c r="F17" s="423"/>
+      <c r="G17" s="423"/>
+      <c r="H17" s="423"/>
+      <c r="I17" s="428"/>
+      <c r="J17" s="428"/>
+      <c r="K17" s="435"/>
+      <c r="L17" s="436"/>
+      <c r="M17" s="437"/>
+      <c r="N17" s="441"/>
+      <c r="O17" s="444"/>
+      <c r="P17" s="423"/>
+      <c r="Q17" s="423"/>
+      <c r="R17" s="423"/>
+      <c r="S17" s="435"/>
+      <c r="T17" s="437"/>
+      <c r="U17" s="423"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="471"/>
-      <c r="B18" s="474"/>
-      <c r="C18" s="457"/>
-      <c r="D18" s="458"/>
-      <c r="E18" s="459"/>
-      <c r="F18" s="468"/>
-      <c r="G18" s="468"/>
-      <c r="H18" s="468"/>
-      <c r="I18" s="479"/>
-      <c r="J18" s="479"/>
-      <c r="K18" s="457"/>
-      <c r="L18" s="458"/>
-      <c r="M18" s="459"/>
-      <c r="N18" s="463"/>
-      <c r="O18" s="466"/>
-      <c r="P18" s="468"/>
-      <c r="Q18" s="468"/>
-      <c r="R18" s="468"/>
-      <c r="S18" s="457"/>
-      <c r="T18" s="459"/>
-      <c r="U18" s="468"/>
+      <c r="A18" s="447"/>
+      <c r="B18" s="450"/>
+      <c r="C18" s="435"/>
+      <c r="D18" s="436"/>
+      <c r="E18" s="437"/>
+      <c r="F18" s="423"/>
+      <c r="G18" s="423"/>
+      <c r="H18" s="423"/>
+      <c r="I18" s="428"/>
+      <c r="J18" s="428"/>
+      <c r="K18" s="435"/>
+      <c r="L18" s="436"/>
+      <c r="M18" s="437"/>
+      <c r="N18" s="441"/>
+      <c r="O18" s="444"/>
+      <c r="P18" s="423"/>
+      <c r="Q18" s="423"/>
+      <c r="R18" s="423"/>
+      <c r="S18" s="435"/>
+      <c r="T18" s="437"/>
+      <c r="U18" s="423"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="471"/>
-      <c r="B19" s="474"/>
-      <c r="C19" s="457"/>
-      <c r="D19" s="458"/>
-      <c r="E19" s="459"/>
-      <c r="F19" s="468"/>
-      <c r="G19" s="468"/>
-      <c r="H19" s="468"/>
-      <c r="I19" s="479"/>
-      <c r="J19" s="479"/>
-      <c r="K19" s="457"/>
-      <c r="L19" s="458"/>
-      <c r="M19" s="459"/>
-      <c r="N19" s="463"/>
-      <c r="O19" s="466"/>
-      <c r="P19" s="468"/>
-      <c r="Q19" s="468"/>
-      <c r="R19" s="468"/>
-      <c r="S19" s="457"/>
-      <c r="T19" s="459"/>
-      <c r="U19" s="468"/>
+      <c r="A19" s="447"/>
+      <c r="B19" s="450"/>
+      <c r="C19" s="435"/>
+      <c r="D19" s="436"/>
+      <c r="E19" s="437"/>
+      <c r="F19" s="423"/>
+      <c r="G19" s="423"/>
+      <c r="H19" s="423"/>
+      <c r="I19" s="428"/>
+      <c r="J19" s="428"/>
+      <c r="K19" s="435"/>
+      <c r="L19" s="436"/>
+      <c r="M19" s="437"/>
+      <c r="N19" s="441"/>
+      <c r="O19" s="444"/>
+      <c r="P19" s="423"/>
+      <c r="Q19" s="423"/>
+      <c r="R19" s="423"/>
+      <c r="S19" s="435"/>
+      <c r="T19" s="437"/>
+      <c r="U19" s="423"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="471"/>
-      <c r="B20" s="474"/>
-      <c r="C20" s="457"/>
-      <c r="D20" s="458"/>
-      <c r="E20" s="459"/>
-      <c r="F20" s="468"/>
-      <c r="G20" s="468"/>
-      <c r="H20" s="468"/>
-      <c r="I20" s="479"/>
-      <c r="J20" s="479"/>
-      <c r="K20" s="457"/>
-      <c r="L20" s="458"/>
-      <c r="M20" s="459"/>
-      <c r="N20" s="463"/>
-      <c r="O20" s="466"/>
-      <c r="P20" s="468"/>
-      <c r="Q20" s="468"/>
-      <c r="R20" s="468"/>
-      <c r="S20" s="457"/>
-      <c r="T20" s="459"/>
-      <c r="U20" s="468"/>
+      <c r="A20" s="447"/>
+      <c r="B20" s="450"/>
+      <c r="C20" s="435"/>
+      <c r="D20" s="436"/>
+      <c r="E20" s="437"/>
+      <c r="F20" s="423"/>
+      <c r="G20" s="423"/>
+      <c r="H20" s="423"/>
+      <c r="I20" s="428"/>
+      <c r="J20" s="428"/>
+      <c r="K20" s="435"/>
+      <c r="L20" s="436"/>
+      <c r="M20" s="437"/>
+      <c r="N20" s="441"/>
+      <c r="O20" s="444"/>
+      <c r="P20" s="423"/>
+      <c r="Q20" s="423"/>
+      <c r="R20" s="423"/>
+      <c r="S20" s="435"/>
+      <c r="T20" s="437"/>
+      <c r="U20" s="423"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="471"/>
-      <c r="B21" s="474"/>
-      <c r="C21" s="457"/>
-      <c r="D21" s="458"/>
-      <c r="E21" s="459"/>
-      <c r="F21" s="468"/>
-      <c r="G21" s="468"/>
-      <c r="H21" s="468"/>
-      <c r="I21" s="479"/>
-      <c r="J21" s="479"/>
-      <c r="K21" s="457"/>
-      <c r="L21" s="458"/>
-      <c r="M21" s="459"/>
-      <c r="N21" s="463"/>
-      <c r="O21" s="466"/>
-      <c r="P21" s="468"/>
-      <c r="Q21" s="468"/>
-      <c r="R21" s="468"/>
-      <c r="S21" s="457"/>
-      <c r="T21" s="459"/>
-      <c r="U21" s="468"/>
+      <c r="A21" s="447"/>
+      <c r="B21" s="450"/>
+      <c r="C21" s="435"/>
+      <c r="D21" s="436"/>
+      <c r="E21" s="437"/>
+      <c r="F21" s="423"/>
+      <c r="G21" s="423"/>
+      <c r="H21" s="423"/>
+      <c r="I21" s="428"/>
+      <c r="J21" s="428"/>
+      <c r="K21" s="435"/>
+      <c r="L21" s="436"/>
+      <c r="M21" s="437"/>
+      <c r="N21" s="441"/>
+      <c r="O21" s="444"/>
+      <c r="P21" s="423"/>
+      <c r="Q21" s="423"/>
+      <c r="R21" s="423"/>
+      <c r="S21" s="435"/>
+      <c r="T21" s="437"/>
+      <c r="U21" s="423"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="471"/>
-      <c r="B22" s="474"/>
-      <c r="C22" s="457"/>
-      <c r="D22" s="458"/>
-      <c r="E22" s="459"/>
-      <c r="F22" s="468"/>
-      <c r="G22" s="468"/>
-      <c r="H22" s="468"/>
-      <c r="I22" s="479"/>
-      <c r="J22" s="479"/>
-      <c r="K22" s="457"/>
-      <c r="L22" s="458"/>
-      <c r="M22" s="459"/>
-      <c r="N22" s="463"/>
-      <c r="O22" s="466"/>
-      <c r="P22" s="468"/>
-      <c r="Q22" s="468"/>
-      <c r="R22" s="468"/>
-      <c r="S22" s="457"/>
-      <c r="T22" s="459"/>
-      <c r="U22" s="468"/>
+      <c r="A22" s="447"/>
+      <c r="B22" s="450"/>
+      <c r="C22" s="435"/>
+      <c r="D22" s="436"/>
+      <c r="E22" s="437"/>
+      <c r="F22" s="423"/>
+      <c r="G22" s="423"/>
+      <c r="H22" s="423"/>
+      <c r="I22" s="428"/>
+      <c r="J22" s="428"/>
+      <c r="K22" s="435"/>
+      <c r="L22" s="436"/>
+      <c r="M22" s="437"/>
+      <c r="N22" s="441"/>
+      <c r="O22" s="444"/>
+      <c r="P22" s="423"/>
+      <c r="Q22" s="423"/>
+      <c r="R22" s="423"/>
+      <c r="S22" s="435"/>
+      <c r="T22" s="437"/>
+      <c r="U22" s="423"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="471"/>
-      <c r="B23" s="474"/>
-      <c r="C23" s="457"/>
-      <c r="D23" s="458"/>
-      <c r="E23" s="459"/>
-      <c r="F23" s="468"/>
-      <c r="G23" s="468"/>
-      <c r="H23" s="468"/>
-      <c r="I23" s="479"/>
-      <c r="J23" s="479"/>
-      <c r="K23" s="457"/>
-      <c r="L23" s="458"/>
-      <c r="M23" s="459"/>
-      <c r="N23" s="463"/>
-      <c r="O23" s="466"/>
-      <c r="P23" s="468"/>
-      <c r="Q23" s="468"/>
-      <c r="R23" s="468"/>
-      <c r="S23" s="457"/>
-      <c r="T23" s="459"/>
-      <c r="U23" s="468"/>
+      <c r="A23" s="447"/>
+      <c r="B23" s="450"/>
+      <c r="C23" s="435"/>
+      <c r="D23" s="436"/>
+      <c r="E23" s="437"/>
+      <c r="F23" s="423"/>
+      <c r="G23" s="423"/>
+      <c r="H23" s="423"/>
+      <c r="I23" s="428"/>
+      <c r="J23" s="428"/>
+      <c r="K23" s="435"/>
+      <c r="L23" s="436"/>
+      <c r="M23" s="437"/>
+      <c r="N23" s="441"/>
+      <c r="O23" s="444"/>
+      <c r="P23" s="423"/>
+      <c r="Q23" s="423"/>
+      <c r="R23" s="423"/>
+      <c r="S23" s="435"/>
+      <c r="T23" s="437"/>
+      <c r="U23" s="423"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="471"/>
-      <c r="B24" s="474"/>
-      <c r="C24" s="457"/>
-      <c r="D24" s="458"/>
-      <c r="E24" s="459"/>
-      <c r="F24" s="468"/>
-      <c r="G24" s="468"/>
-      <c r="H24" s="468"/>
-      <c r="I24" s="479"/>
-      <c r="J24" s="479"/>
-      <c r="K24" s="457"/>
-      <c r="L24" s="458"/>
-      <c r="M24" s="459"/>
-      <c r="N24" s="463"/>
-      <c r="O24" s="466"/>
-      <c r="P24" s="468"/>
-      <c r="Q24" s="468"/>
-      <c r="R24" s="468"/>
-      <c r="S24" s="457"/>
-      <c r="T24" s="459"/>
-      <c r="U24" s="468"/>
+      <c r="A24" s="447"/>
+      <c r="B24" s="450"/>
+      <c r="C24" s="435"/>
+      <c r="D24" s="436"/>
+      <c r="E24" s="437"/>
+      <c r="F24" s="423"/>
+      <c r="G24" s="423"/>
+      <c r="H24" s="423"/>
+      <c r="I24" s="428"/>
+      <c r="J24" s="428"/>
+      <c r="K24" s="435"/>
+      <c r="L24" s="436"/>
+      <c r="M24" s="437"/>
+      <c r="N24" s="441"/>
+      <c r="O24" s="444"/>
+      <c r="P24" s="423"/>
+      <c r="Q24" s="423"/>
+      <c r="R24" s="423"/>
+      <c r="S24" s="435"/>
+      <c r="T24" s="437"/>
+      <c r="U24" s="423"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="471"/>
-      <c r="B25" s="474"/>
-      <c r="C25" s="457"/>
-      <c r="D25" s="458"/>
-      <c r="E25" s="459"/>
-      <c r="F25" s="468"/>
-      <c r="G25" s="468"/>
-      <c r="H25" s="468"/>
-      <c r="I25" s="479"/>
-      <c r="J25" s="479"/>
-      <c r="K25" s="457"/>
-      <c r="L25" s="458"/>
-      <c r="M25" s="459"/>
-      <c r="N25" s="463"/>
-      <c r="O25" s="466"/>
-      <c r="P25" s="468"/>
-      <c r="Q25" s="468"/>
-      <c r="R25" s="468"/>
-      <c r="S25" s="457"/>
-      <c r="T25" s="459"/>
-      <c r="U25" s="468"/>
+      <c r="A25" s="447"/>
+      <c r="B25" s="450"/>
+      <c r="C25" s="435"/>
+      <c r="D25" s="436"/>
+      <c r="E25" s="437"/>
+      <c r="F25" s="423"/>
+      <c r="G25" s="423"/>
+      <c r="H25" s="423"/>
+      <c r="I25" s="428"/>
+      <c r="J25" s="428"/>
+      <c r="K25" s="435"/>
+      <c r="L25" s="436"/>
+      <c r="M25" s="437"/>
+      <c r="N25" s="441"/>
+      <c r="O25" s="444"/>
+      <c r="P25" s="423"/>
+      <c r="Q25" s="423"/>
+      <c r="R25" s="423"/>
+      <c r="S25" s="435"/>
+      <c r="T25" s="437"/>
+      <c r="U25" s="423"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="471"/>
-      <c r="B26" s="474"/>
-      <c r="C26" s="457"/>
-      <c r="D26" s="458"/>
-      <c r="E26" s="459"/>
-      <c r="F26" s="468"/>
-      <c r="G26" s="468"/>
-      <c r="H26" s="468"/>
-      <c r="I26" s="479"/>
-      <c r="J26" s="479"/>
-      <c r="K26" s="457"/>
-      <c r="L26" s="458"/>
-      <c r="M26" s="459"/>
-      <c r="N26" s="463"/>
-      <c r="O26" s="466"/>
-      <c r="P26" s="468"/>
-      <c r="Q26" s="468"/>
-      <c r="R26" s="468"/>
-      <c r="S26" s="457"/>
-      <c r="T26" s="459"/>
-      <c r="U26" s="468"/>
+      <c r="A26" s="447"/>
+      <c r="B26" s="450"/>
+      <c r="C26" s="435"/>
+      <c r="D26" s="436"/>
+      <c r="E26" s="437"/>
+      <c r="F26" s="423"/>
+      <c r="G26" s="423"/>
+      <c r="H26" s="423"/>
+      <c r="I26" s="428"/>
+      <c r="J26" s="428"/>
+      <c r="K26" s="435"/>
+      <c r="L26" s="436"/>
+      <c r="M26" s="437"/>
+      <c r="N26" s="441"/>
+      <c r="O26" s="444"/>
+      <c r="P26" s="423"/>
+      <c r="Q26" s="423"/>
+      <c r="R26" s="423"/>
+      <c r="S26" s="435"/>
+      <c r="T26" s="437"/>
+      <c r="U26" s="423"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="471"/>
-      <c r="B27" s="474"/>
-      <c r="C27" s="457"/>
-      <c r="D27" s="458"/>
-      <c r="E27" s="459"/>
-      <c r="F27" s="468"/>
-      <c r="G27" s="468"/>
-      <c r="H27" s="468"/>
-      <c r="I27" s="479"/>
-      <c r="J27" s="479"/>
-      <c r="K27" s="457"/>
-      <c r="L27" s="458"/>
-      <c r="M27" s="459"/>
-      <c r="N27" s="463"/>
-      <c r="O27" s="466"/>
-      <c r="P27" s="468"/>
-      <c r="Q27" s="468"/>
-      <c r="R27" s="468"/>
-      <c r="S27" s="457"/>
-      <c r="T27" s="459"/>
-      <c r="U27" s="468"/>
+      <c r="A27" s="447"/>
+      <c r="B27" s="450"/>
+      <c r="C27" s="435"/>
+      <c r="D27" s="436"/>
+      <c r="E27" s="437"/>
+      <c r="F27" s="423"/>
+      <c r="G27" s="423"/>
+      <c r="H27" s="423"/>
+      <c r="I27" s="428"/>
+      <c r="J27" s="428"/>
+      <c r="K27" s="435"/>
+      <c r="L27" s="436"/>
+      <c r="M27" s="437"/>
+      <c r="N27" s="441"/>
+      <c r="O27" s="444"/>
+      <c r="P27" s="423"/>
+      <c r="Q27" s="423"/>
+      <c r="R27" s="423"/>
+      <c r="S27" s="435"/>
+      <c r="T27" s="437"/>
+      <c r="U27" s="423"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="471"/>
-      <c r="B28" s="474"/>
-      <c r="C28" s="457"/>
-      <c r="D28" s="458"/>
-      <c r="E28" s="459"/>
-      <c r="F28" s="468"/>
-      <c r="G28" s="468"/>
-      <c r="H28" s="468"/>
-      <c r="I28" s="479"/>
-      <c r="J28" s="479"/>
-      <c r="K28" s="457"/>
-      <c r="L28" s="458"/>
-      <c r="M28" s="459"/>
-      <c r="N28" s="463"/>
-      <c r="O28" s="466"/>
-      <c r="P28" s="468"/>
-      <c r="Q28" s="468"/>
-      <c r="R28" s="468"/>
-      <c r="S28" s="457"/>
-      <c r="T28" s="459"/>
-      <c r="U28" s="468"/>
+      <c r="A28" s="447"/>
+      <c r="B28" s="450"/>
+      <c r="C28" s="435"/>
+      <c r="D28" s="436"/>
+      <c r="E28" s="437"/>
+      <c r="F28" s="423"/>
+      <c r="G28" s="423"/>
+      <c r="H28" s="423"/>
+      <c r="I28" s="428"/>
+      <c r="J28" s="428"/>
+      <c r="K28" s="435"/>
+      <c r="L28" s="436"/>
+      <c r="M28" s="437"/>
+      <c r="N28" s="441"/>
+      <c r="O28" s="444"/>
+      <c r="P28" s="423"/>
+      <c r="Q28" s="423"/>
+      <c r="R28" s="423"/>
+      <c r="S28" s="435"/>
+      <c r="T28" s="437"/>
+      <c r="U28" s="423"/>
     </row>
     <row r="29" spans="1:21" ht="8.25" customHeight="1">
-      <c r="A29" s="471"/>
-      <c r="B29" s="474"/>
-      <c r="C29" s="457"/>
-      <c r="D29" s="458"/>
-      <c r="E29" s="459"/>
-      <c r="F29" s="468"/>
-      <c r="G29" s="468"/>
-      <c r="H29" s="468"/>
-      <c r="I29" s="479"/>
-      <c r="J29" s="479"/>
-      <c r="K29" s="457"/>
-      <c r="L29" s="458"/>
-      <c r="M29" s="459"/>
-      <c r="N29" s="463"/>
-      <c r="O29" s="466"/>
-      <c r="P29" s="468"/>
-      <c r="Q29" s="468"/>
-      <c r="R29" s="468"/>
-      <c r="S29" s="457"/>
-      <c r="T29" s="459"/>
-      <c r="U29" s="468"/>
+      <c r="A29" s="447"/>
+      <c r="B29" s="450"/>
+      <c r="C29" s="435"/>
+      <c r="D29" s="436"/>
+      <c r="E29" s="437"/>
+      <c r="F29" s="423"/>
+      <c r="G29" s="423"/>
+      <c r="H29" s="423"/>
+      <c r="I29" s="428"/>
+      <c r="J29" s="428"/>
+      <c r="K29" s="435"/>
+      <c r="L29" s="436"/>
+      <c r="M29" s="437"/>
+      <c r="N29" s="441"/>
+      <c r="O29" s="444"/>
+      <c r="P29" s="423"/>
+      <c r="Q29" s="423"/>
+      <c r="R29" s="423"/>
+      <c r="S29" s="435"/>
+      <c r="T29" s="437"/>
+      <c r="U29" s="423"/>
     </row>
     <row r="30" spans="1:21" ht="12" customHeight="1" thickBot="1">
-      <c r="A30" s="472"/>
-      <c r="B30" s="475"/>
-      <c r="C30" s="460"/>
-      <c r="D30" s="461"/>
-      <c r="E30" s="462"/>
-      <c r="F30" s="469"/>
-      <c r="G30" s="469"/>
-      <c r="H30" s="469"/>
-      <c r="I30" s="480"/>
-      <c r="J30" s="480"/>
-      <c r="K30" s="460"/>
-      <c r="L30" s="461"/>
-      <c r="M30" s="462"/>
-      <c r="N30" s="464"/>
-      <c r="O30" s="467"/>
-      <c r="P30" s="469"/>
-      <c r="Q30" s="469"/>
-      <c r="R30" s="469"/>
-      <c r="S30" s="460"/>
-      <c r="T30" s="462"/>
-      <c r="U30" s="469"/>
+      <c r="A30" s="448"/>
+      <c r="B30" s="451"/>
+      <c r="C30" s="438"/>
+      <c r="D30" s="439"/>
+      <c r="E30" s="440"/>
+      <c r="F30" s="424"/>
+      <c r="G30" s="424"/>
+      <c r="H30" s="424"/>
+      <c r="I30" s="429"/>
+      <c r="J30" s="429"/>
+      <c r="K30" s="438"/>
+      <c r="L30" s="439"/>
+      <c r="M30" s="440"/>
+      <c r="N30" s="442"/>
+      <c r="O30" s="445"/>
+      <c r="P30" s="424"/>
+      <c r="Q30" s="424"/>
+      <c r="R30" s="424"/>
+      <c r="S30" s="438"/>
+      <c r="T30" s="440"/>
+      <c r="U30" s="424"/>
     </row>
     <row r="31" spans="1:21" ht="14.5" thickBot="1">
-      <c r="A31" s="476">
+      <c r="A31" s="425">
         <v>1</v>
       </c>
-      <c r="B31" s="477"/>
-      <c r="C31" s="476">
+      <c r="B31" s="426"/>
+      <c r="C31" s="425">
         <v>2</v>
       </c>
-      <c r="D31" s="478"/>
-      <c r="E31" s="477"/>
-      <c r="F31" s="476">
+      <c r="D31" s="427"/>
+      <c r="E31" s="426"/>
+      <c r="F31" s="425">
         <v>3</v>
       </c>
-      <c r="G31" s="478"/>
-      <c r="H31" s="478"/>
+      <c r="G31" s="427"/>
+      <c r="H31" s="427"/>
       <c r="I31" s="291">
         <v>4</v>
       </c>
@@ -11679,10 +11655,10 @@
       <c r="R31" s="291">
         <v>13</v>
       </c>
-      <c r="S31" s="476">
+      <c r="S31" s="425">
         <v>14</v>
       </c>
-      <c r="T31" s="477"/>
+      <c r="T31" s="426"/>
       <c r="U31" s="293">
         <v>15</v>
       </c>
@@ -11716,26 +11692,26 @@
       <c r="A33" s="168">
         <v>1</v>
       </c>
-      <c r="B33" s="387" t="s">
+      <c r="B33" s="399" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="387"/>
-      <c r="D33" s="387"/>
-      <c r="E33" s="387"/>
-      <c r="F33" s="387"/>
-      <c r="G33" s="387"/>
-      <c r="H33" s="387"/>
-      <c r="I33" s="387"/>
-      <c r="J33" s="387"/>
-      <c r="K33" s="387"/>
-      <c r="L33" s="387"/>
-      <c r="M33" s="387"/>
-      <c r="N33" s="387"/>
-      <c r="O33" s="387"/>
-      <c r="P33" s="387"/>
-      <c r="Q33" s="387"/>
-      <c r="R33" s="387"/>
-      <c r="S33" s="387"/>
+      <c r="C33" s="399"/>
+      <c r="D33" s="399"/>
+      <c r="E33" s="399"/>
+      <c r="F33" s="399"/>
+      <c r="G33" s="399"/>
+      <c r="H33" s="399"/>
+      <c r="I33" s="399"/>
+      <c r="J33" s="399"/>
+      <c r="K33" s="399"/>
+      <c r="L33" s="399"/>
+      <c r="M33" s="399"/>
+      <c r="N33" s="399"/>
+      <c r="O33" s="399"/>
+      <c r="P33" s="399"/>
+      <c r="Q33" s="399"/>
+      <c r="R33" s="399"/>
+      <c r="S33" s="399"/>
       <c r="T33" s="299"/>
       <c r="U33" s="300"/>
     </row>
@@ -11743,26 +11719,26 @@
       <c r="A34" s="168">
         <v>2</v>
       </c>
-      <c r="B34" s="387" t="s">
+      <c r="B34" s="399" t="s">
         <v>218</v>
       </c>
-      <c r="C34" s="387"/>
-      <c r="D34" s="387"/>
-      <c r="E34" s="387"/>
-      <c r="F34" s="387"/>
-      <c r="G34" s="387"/>
-      <c r="H34" s="387"/>
-      <c r="I34" s="387"/>
-      <c r="J34" s="387"/>
-      <c r="K34" s="387"/>
-      <c r="L34" s="387"/>
-      <c r="M34" s="387"/>
-      <c r="N34" s="387"/>
-      <c r="O34" s="387"/>
-      <c r="P34" s="387"/>
-      <c r="Q34" s="387"/>
-      <c r="R34" s="387"/>
-      <c r="S34" s="387"/>
+      <c r="C34" s="399"/>
+      <c r="D34" s="399"/>
+      <c r="E34" s="399"/>
+      <c r="F34" s="399"/>
+      <c r="G34" s="399"/>
+      <c r="H34" s="399"/>
+      <c r="I34" s="399"/>
+      <c r="J34" s="399"/>
+      <c r="K34" s="399"/>
+      <c r="L34" s="399"/>
+      <c r="M34" s="399"/>
+      <c r="N34" s="399"/>
+      <c r="O34" s="399"/>
+      <c r="P34" s="399"/>
+      <c r="Q34" s="399"/>
+      <c r="R34" s="399"/>
+      <c r="S34" s="399"/>
       <c r="T34" s="301"/>
       <c r="U34" s="302"/>
     </row>
@@ -11770,26 +11746,26 @@
       <c r="A35" s="168">
         <v>3</v>
       </c>
-      <c r="B35" s="387" t="s">
+      <c r="B35" s="399" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="387"/>
-      <c r="D35" s="387"/>
-      <c r="E35" s="387"/>
-      <c r="F35" s="387"/>
-      <c r="G35" s="387"/>
-      <c r="H35" s="387"/>
-      <c r="I35" s="387"/>
-      <c r="J35" s="387"/>
-      <c r="K35" s="387"/>
-      <c r="L35" s="387"/>
-      <c r="M35" s="387"/>
-      <c r="N35" s="387"/>
-      <c r="O35" s="387"/>
-      <c r="P35" s="387"/>
-      <c r="Q35" s="387"/>
-      <c r="R35" s="387"/>
-      <c r="S35" s="387"/>
+      <c r="C35" s="399"/>
+      <c r="D35" s="399"/>
+      <c r="E35" s="399"/>
+      <c r="F35" s="399"/>
+      <c r="G35" s="399"/>
+      <c r="H35" s="399"/>
+      <c r="I35" s="399"/>
+      <c r="J35" s="399"/>
+      <c r="K35" s="399"/>
+      <c r="L35" s="399"/>
+      <c r="M35" s="399"/>
+      <c r="N35" s="399"/>
+      <c r="O35" s="399"/>
+      <c r="P35" s="399"/>
+      <c r="Q35" s="399"/>
+      <c r="R35" s="399"/>
+      <c r="S35" s="399"/>
       <c r="T35" s="303"/>
       <c r="U35" s="304"/>
     </row>
@@ -11797,26 +11773,26 @@
       <c r="A36" s="168">
         <v>4</v>
       </c>
-      <c r="B36" s="387" t="s">
+      <c r="B36" s="399" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="387"/>
-      <c r="D36" s="387"/>
-      <c r="E36" s="387"/>
-      <c r="F36" s="387"/>
-      <c r="G36" s="387"/>
-      <c r="H36" s="387"/>
-      <c r="I36" s="387"/>
-      <c r="J36" s="387"/>
-      <c r="K36" s="387"/>
-      <c r="L36" s="387"/>
-      <c r="M36" s="387"/>
-      <c r="N36" s="387"/>
-      <c r="O36" s="387"/>
-      <c r="P36" s="387"/>
-      <c r="Q36" s="387"/>
-      <c r="R36" s="387"/>
-      <c r="S36" s="387"/>
+      <c r="C36" s="399"/>
+      <c r="D36" s="399"/>
+      <c r="E36" s="399"/>
+      <c r="F36" s="399"/>
+      <c r="G36" s="399"/>
+      <c r="H36" s="399"/>
+      <c r="I36" s="399"/>
+      <c r="J36" s="399"/>
+      <c r="K36" s="399"/>
+      <c r="L36" s="399"/>
+      <c r="M36" s="399"/>
+      <c r="N36" s="399"/>
+      <c r="O36" s="399"/>
+      <c r="P36" s="399"/>
+      <c r="Q36" s="399"/>
+      <c r="R36" s="399"/>
+      <c r="S36" s="399"/>
       <c r="T36" s="303"/>
       <c r="U36" s="304"/>
     </row>
@@ -11824,26 +11800,26 @@
       <c r="A37" s="168">
         <v>5</v>
       </c>
-      <c r="B37" s="387" t="s">
+      <c r="B37" s="399" t="s">
         <v>312</v>
       </c>
-      <c r="C37" s="387"/>
-      <c r="D37" s="387"/>
-      <c r="E37" s="387"/>
-      <c r="F37" s="387"/>
-      <c r="G37" s="387"/>
-      <c r="H37" s="387"/>
-      <c r="I37" s="387"/>
-      <c r="J37" s="387"/>
-      <c r="K37" s="387"/>
-      <c r="L37" s="387"/>
-      <c r="M37" s="387"/>
-      <c r="N37" s="387"/>
-      <c r="O37" s="387"/>
-      <c r="P37" s="387"/>
-      <c r="Q37" s="387"/>
-      <c r="R37" s="387"/>
-      <c r="S37" s="387"/>
+      <c r="C37" s="399"/>
+      <c r="D37" s="399"/>
+      <c r="E37" s="399"/>
+      <c r="F37" s="399"/>
+      <c r="G37" s="399"/>
+      <c r="H37" s="399"/>
+      <c r="I37" s="399"/>
+      <c r="J37" s="399"/>
+      <c r="K37" s="399"/>
+      <c r="L37" s="399"/>
+      <c r="M37" s="399"/>
+      <c r="N37" s="399"/>
+      <c r="O37" s="399"/>
+      <c r="P37" s="399"/>
+      <c r="Q37" s="399"/>
+      <c r="R37" s="399"/>
+      <c r="S37" s="399"/>
       <c r="T37" s="303"/>
       <c r="U37" s="304"/>
     </row>
@@ -11851,34 +11827,34 @@
       <c r="A38" s="168">
         <v>6</v>
       </c>
-      <c r="B38" s="387" t="s">
+      <c r="B38" s="399" t="s">
         <v>313</v>
       </c>
-      <c r="C38" s="387"/>
-      <c r="D38" s="387"/>
-      <c r="E38" s="387"/>
-      <c r="F38" s="387"/>
-      <c r="G38" s="387"/>
-      <c r="H38" s="387"/>
-      <c r="I38" s="387"/>
-      <c r="J38" s="387"/>
-      <c r="K38" s="387"/>
-      <c r="L38" s="387"/>
-      <c r="M38" s="387"/>
-      <c r="N38" s="387"/>
-      <c r="O38" s="387"/>
-      <c r="P38" s="387"/>
-      <c r="Q38" s="387"/>
-      <c r="R38" s="387"/>
-      <c r="S38" s="387"/>
+      <c r="C38" s="399"/>
+      <c r="D38" s="399"/>
+      <c r="E38" s="399"/>
+      <c r="F38" s="399"/>
+      <c r="G38" s="399"/>
+      <c r="H38" s="399"/>
+      <c r="I38" s="399"/>
+      <c r="J38" s="399"/>
+      <c r="K38" s="399"/>
+      <c r="L38" s="399"/>
+      <c r="M38" s="399"/>
+      <c r="N38" s="399"/>
+      <c r="O38" s="399"/>
+      <c r="P38" s="399"/>
+      <c r="Q38" s="399"/>
+      <c r="R38" s="399"/>
+      <c r="S38" s="399"/>
       <c r="T38" s="303"/>
       <c r="U38" s="304"/>
     </row>
     <row r="39" spans="1:21" ht="14.5">
-      <c r="A39" s="481"/>
-      <c r="B39" s="482"/>
-      <c r="C39" s="481"/>
-      <c r="D39" s="482"/>
+      <c r="A39" s="421"/>
+      <c r="B39" s="422"/>
+      <c r="C39" s="421"/>
+      <c r="D39" s="422"/>
       <c r="E39" s="305"/>
       <c r="F39" s="306"/>
       <c r="G39" s="306"/>
@@ -11893,15 +11869,15 @@
       <c r="P39" s="306"/>
       <c r="Q39" s="306"/>
       <c r="R39" s="306"/>
-      <c r="S39" s="481"/>
-      <c r="T39" s="482"/>
+      <c r="S39" s="421"/>
+      <c r="T39" s="422"/>
       <c r="U39" s="306"/>
     </row>
     <row r="40" spans="1:21" ht="14.5">
-      <c r="A40" s="483"/>
-      <c r="B40" s="484"/>
-      <c r="C40" s="483"/>
-      <c r="D40" s="484"/>
+      <c r="A40" s="417"/>
+      <c r="B40" s="418"/>
+      <c r="C40" s="417"/>
+      <c r="D40" s="418"/>
       <c r="E40" s="178"/>
       <c r="F40" s="307"/>
       <c r="G40" s="307"/>
@@ -11916,15 +11892,15 @@
       <c r="P40" s="307"/>
       <c r="Q40" s="307"/>
       <c r="R40" s="307"/>
-      <c r="S40" s="483"/>
-      <c r="T40" s="484"/>
+      <c r="S40" s="417"/>
+      <c r="T40" s="418"/>
       <c r="U40" s="307"/>
     </row>
     <row r="41" spans="1:21" ht="14.5">
-      <c r="A41" s="483"/>
-      <c r="B41" s="484"/>
-      <c r="C41" s="483"/>
-      <c r="D41" s="484"/>
+      <c r="A41" s="417"/>
+      <c r="B41" s="418"/>
+      <c r="C41" s="417"/>
+      <c r="D41" s="418"/>
       <c r="E41" s="178"/>
       <c r="F41" s="307"/>
       <c r="G41" s="307"/>
@@ -11939,15 +11915,15 @@
       <c r="P41" s="307"/>
       <c r="Q41" s="307"/>
       <c r="R41" s="307"/>
-      <c r="S41" s="483"/>
-      <c r="T41" s="484"/>
+      <c r="S41" s="417"/>
+      <c r="T41" s="418"/>
       <c r="U41" s="307"/>
     </row>
     <row r="42" spans="1:21" ht="15" thickBot="1">
-      <c r="A42" s="485"/>
-      <c r="B42" s="486"/>
-      <c r="C42" s="485"/>
-      <c r="D42" s="486"/>
+      <c r="A42" s="419"/>
+      <c r="B42" s="420"/>
+      <c r="C42" s="419"/>
+      <c r="D42" s="420"/>
       <c r="E42" s="308"/>
       <c r="F42" s="309"/>
       <c r="G42" s="309"/>
@@ -11962,8 +11938,8 @@
       <c r="P42" s="309"/>
       <c r="Q42" s="309"/>
       <c r="R42" s="309"/>
-      <c r="S42" s="485"/>
-      <c r="T42" s="486"/>
+      <c r="S42" s="419"/>
+      <c r="T42" s="420"/>
       <c r="U42" s="309"/>
     </row>
     <row r="43" spans="1:21" ht="14.5">
@@ -12203,31 +12179,27 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="B38:S38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="B33:S33"/>
-    <mergeCell ref="B34:S34"/>
-    <mergeCell ref="B35:S35"/>
-    <mergeCell ref="B36:S36"/>
-    <mergeCell ref="B37:S37"/>
-    <mergeCell ref="U15:U30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="I15:I30"/>
-    <mergeCell ref="J15:J30"/>
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="G4:P4"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:K12"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="S14:T14"/>
@@ -12244,27 +12216,31 @@
     <mergeCell ref="Q15:Q30"/>
     <mergeCell ref="R15:R30"/>
     <mergeCell ref="S15:T30"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="G1:P1"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="G3:P3"/>
-    <mergeCell ref="G4:P4"/>
-    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="U15:U30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="I15:I30"/>
+    <mergeCell ref="J15:J30"/>
+    <mergeCell ref="B33:S33"/>
+    <mergeCell ref="B34:S34"/>
+    <mergeCell ref="B35:S35"/>
+    <mergeCell ref="B36:S36"/>
+    <mergeCell ref="B37:S37"/>
+    <mergeCell ref="B38:S38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="S42:T42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
@@ -12295,74 +12271,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A1" s="493" t="s">
+      <c r="A1" s="487" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="493"/>
-      <c r="C1" s="493"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="493"/>
-      <c r="F1" s="493"/>
-      <c r="G1" s="493"/>
+      <c r="B1" s="487"/>
+      <c r="C1" s="487"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
+      <c r="F1" s="487"/>
+      <c r="G1" s="487"/>
     </row>
     <row r="2" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A2" s="500">
+      <c r="A2" s="495">
         <f>MAIN!C8</f>
         <v>0</v>
       </c>
-      <c r="B2" s="500"/>
-      <c r="C2" s="500"/>
-      <c r="D2" s="500"/>
-      <c r="E2" s="500"/>
-      <c r="F2" s="500"/>
-      <c r="G2" s="500"/>
+      <c r="B2" s="495"/>
+      <c r="C2" s="495"/>
+      <c r="D2" s="495"/>
+      <c r="E2" s="495"/>
+      <c r="F2" s="495"/>
+      <c r="G2" s="495"/>
     </row>
     <row r="3" spans="1:10" ht="51.75" customHeight="1">
-      <c r="A3" s="494" t="str">
+      <c r="A3" s="488" t="str">
         <f>CONCATENATE(MAIN!A10,MAIN!B10,MAIN!C10)</f>
         <v>Name of Work  :-</v>
       </c>
-      <c r="B3" s="494"/>
-      <c r="C3" s="494"/>
-      <c r="D3" s="494"/>
-      <c r="E3" s="494"/>
-      <c r="F3" s="494"/>
-      <c r="G3" s="494"/>
+      <c r="B3" s="488"/>
+      <c r="C3" s="488"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="488"/>
+      <c r="F3" s="488"/>
+      <c r="G3" s="488"/>
     </row>
     <row r="4" spans="1:10" ht="19">
-      <c r="A4" s="495" t="str">
+      <c r="A4" s="490" t="str">
         <f>CONCATENATE(MAIN!A4,MAIN!B4,MAIN!C4)</f>
         <v xml:space="preserve">Agreement No. :- </v>
       </c>
-      <c r="B4" s="495"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="495"/>
-      <c r="E4" s="495"/>
-      <c r="F4" s="495"/>
-      <c r="G4" s="495"/>
+      <c r="B4" s="490"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="490"/>
+      <c r="E4" s="490"/>
+      <c r="F4" s="490"/>
+      <c r="G4" s="490"/>
     </row>
     <row r="5" spans="1:10" ht="19">
-      <c r="A5" s="496" t="str">
+      <c r="A5" s="491" t="str">
         <f>CONCATENATE(MAIN!A3,MAIN!B3,MAIN!C3)</f>
         <v xml:space="preserve">Agency :- </v>
       </c>
-      <c r="B5" s="496"/>
-      <c r="C5" s="496"/>
-      <c r="D5" s="496"/>
-      <c r="E5" s="496"/>
-      <c r="F5" s="496"/>
-      <c r="G5" s="496"/>
+      <c r="B5" s="491"/>
+      <c r="C5" s="491"/>
+      <c r="D5" s="491"/>
+      <c r="E5" s="491"/>
+      <c r="F5" s="491"/>
+      <c r="G5" s="491"/>
     </row>
     <row r="6" spans="1:10" ht="19">
-      <c r="A6" s="497" t="s">
+      <c r="A6" s="492" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="498"/>
-      <c r="C6" s="498"/>
-      <c r="D6" s="498"/>
-      <c r="E6" s="498"/>
-      <c r="F6" s="498"/>
-      <c r="G6" s="499"/>
+      <c r="B6" s="493"/>
+      <c r="C6" s="493"/>
+      <c r="D6" s="493"/>
+      <c r="E6" s="493"/>
+      <c r="F6" s="493"/>
+      <c r="G6" s="494"/>
     </row>
     <row r="7" spans="1:10" ht="38">
       <c r="A7" s="46" t="s">
@@ -12408,13 +12384,13 @@
         <f>E8-F8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="487" t="s">
+      <c r="H8" s="496" t="s">
         <v>193</v>
       </c>
-      <c r="I8" s="488"/>
+      <c r="I8" s="497"/>
       <c r="J8" s="65">
         <f>MAIN!C17</f>
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
@@ -12425,10 +12401,10 @@
       <c r="E9" s="227"/>
       <c r="F9" s="227"/>
       <c r="G9" s="228"/>
-      <c r="H9" s="487" t="s">
+      <c r="H9" s="496" t="s">
         <v>194</v>
       </c>
-      <c r="I9" s="488"/>
+      <c r="I9" s="497"/>
       <c r="J9" s="65">
         <f>MAIN!C12</f>
         <v>0</v>
@@ -12446,23 +12422,23 @@
       </c>
       <c r="D10" s="229">
         <f>MAIN!C17</f>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="E10" s="223">
         <f>ROUND(C10%*D10,0)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F10" s="224">
         <v>0</v>
       </c>
       <c r="G10" s="225">
         <f>E10-F10</f>
-        <v>300</v>
-      </c>
-      <c r="H10" s="487" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="496" t="s">
         <v>195</v>
       </c>
-      <c r="I10" s="488"/>
+      <c r="I10" s="497"/>
       <c r="J10">
         <f>IF(J8&lt;J9,J8,J9)</f>
         <v>0</v>
@@ -12489,18 +12465,18 @@
       </c>
       <c r="D12" s="229">
         <f>D10</f>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="E12" s="223">
         <f>ROUND(C12%*D12,0)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F12" s="224">
         <v>0</v>
       </c>
       <c r="G12" s="225">
         <f>E12-F12</f>
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -12524,18 +12500,18 @@
       </c>
       <c r="D14" s="229">
         <f>D12</f>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="223">
         <f>ROUND(C14%*D14,0)</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F14" s="224">
         <v>0</v>
       </c>
       <c r="G14" s="225">
         <f>E14-F14</f>
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
@@ -12556,7 +12532,7 @@
       <c r="D16" s="238"/>
       <c r="E16" s="245">
         <f>SUM(E8:E15)</f>
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="F16" s="245">
         <f>SUM(F8:F15)</f>
@@ -12564,7 +12540,7 @@
       </c>
       <c r="G16" s="245">
         <f>SUM(G8:G15)</f>
-        <v>1050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="19">
@@ -12574,12 +12550,12 @@
       <c r="B17" s="240"/>
       <c r="C17" s="240"/>
       <c r="D17" s="241"/>
-      <c r="E17" s="489">
+      <c r="E17" s="498">
         <f>G16</f>
-        <v>1050</v>
-      </c>
-      <c r="F17" s="490"/>
-      <c r="G17" s="491"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="499"/>
+      <c r="G17" s="500"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="166"/>
@@ -12598,18 +12574,18 @@
       <c r="C19" s="244"/>
       <c r="D19" s="221">
         <f>MAIN!E17</f>
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="E19" s="248" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="249">
         <f>G16</f>
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="G19" s="250">
         <f>D19-F19</f>
-        <v>5950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19">
@@ -12636,11 +12612,11 @@
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
-      <c r="F22" s="492" t="str">
+      <c r="F22" s="489" t="str">
         <f>MAIN!E19</f>
         <v>Assistant Engineer</v>
       </c>
-      <c r="G22" s="492"/>
+      <c r="G22" s="489"/>
     </row>
     <row r="23" spans="1:7" ht="20.5">
       <c r="A23" s="54"/>
@@ -12648,11 +12624,11 @@
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
-      <c r="F23" s="492" t="str">
+      <c r="F23" s="489">
         <f>MAIN!E20</f>
-        <v>Sub Div-3M</v>
-      </c>
-      <c r="G23" s="492"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="489"/>
     </row>
     <row r="24" spans="1:7" ht="20.5">
       <c r="A24" s="54"/>
@@ -12660,11 +12636,11 @@
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
-      <c r="F24" s="492" t="str">
+      <c r="F24" s="489">
         <f>MAIN!E21</f>
-        <v xml:space="preserve">Sewa Bhawan </v>
-      </c>
-      <c r="G24" s="492"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="489"/>
     </row>
     <row r="25" spans="1:7" ht="20.5">
       <c r="A25" s="54"/>
@@ -12672,14 +12648,19 @@
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
-      <c r="F25" s="492" t="str">
+      <c r="F25" s="489">
         <f>MAIN!E22</f>
-        <v>New Delhi</v>
-      </c>
-      <c r="G25" s="492"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="489"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="F25:G25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="F22:G22"/>
@@ -12689,11 +12670,6 @@
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.55000000000000004" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -12820,7 +12796,7 @@
       </c>
       <c r="E7" s="9">
         <f>MAIN!C17</f>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
@@ -13084,21 +13060,21 @@
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="317" t="str">
+      <c r="G35" s="317">
         <f>MAIN!E20</f>
-        <v>Sub Div-3M</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.5">
-      <c r="G36" s="317" t="str">
+      <c r="G36" s="317">
         <f>MAIN!E21</f>
-        <v xml:space="preserve">Sewa Bhawan </v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.5">
-      <c r="G37" s="317" t="str">
+      <c r="G37" s="317">
         <f>MAIN!E22</f>
-        <v>New Delhi</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13502,21 +13478,21 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="275"/>
-      <c r="C40" s="318" t="str">
+      <c r="C40" s="318">
         <f>MAIN!E20</f>
-        <v>Sub Div-3M</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="C41" s="318" t="str">
+      <c r="C41" s="318">
         <f>MAIN!E21</f>
-        <v xml:space="preserve">Sewa Bhawan </v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="C42" s="318" t="str">
+      <c r="C42" s="318">
         <f>MAIN!E22</f>
-        <v>New Delhi</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_and_schema/BILLFORMS_TEMPLATE.xlsx
+++ b/data_and_schema/BILLFORMS_TEMPLATE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA581B10-3647-4F8E-A677-5B60FB147861}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB89F45-6211-4895-B3CE-0AB7AE23FF6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
   <definedNames>
     <definedName name="BF_AGENCY">MAIN!$C$3</definedName>
     <definedName name="BF_AGGREEMENT_NUM">MAIN!$C$4</definedName>
+    <definedName name="BF_AMOUNT_IN_WORDS">MAIN!$E$18</definedName>
     <definedName name="BF_CLAUSE">MAIN!$C$9</definedName>
     <definedName name="BF_DIVISION">MAIN!$C$13</definedName>
     <definedName name="BF_DOC">MAIN!$C$6</definedName>
@@ -31,9 +32,16 @@
     <definedName name="BF_DOS">MAIN!$C$5</definedName>
     <definedName name="BF_ESTIMATED_COST">MAIN!$C$11</definedName>
     <definedName name="BF_NAME_OF_WORK">MAIN!$C$10</definedName>
+    <definedName name="BF_PREV_AMOUNT">MAIN!$D$17</definedName>
+    <definedName name="BF_SIGN_1">MAIN!$E$19</definedName>
+    <definedName name="BF_SIGN_2">MAIN!$E$20</definedName>
+    <definedName name="BF_SIGN_3">MAIN!$E$21</definedName>
+    <definedName name="BF_SIGN_4">MAIN!$E$22</definedName>
+    <definedName name="BF_SINCE_PREV_AMOUNT">MAIN!$E$17</definedName>
     <definedName name="BF_SNO_OF_BILL">MAIN!$C$8</definedName>
     <definedName name="BF_SUB_DIVISION">MAIN!$C$14</definedName>
     <definedName name="BF_TENDER_COST">MAIN!$C$12</definedName>
+    <definedName name="BF_TOTAL_AMOUNT">MAIN!$C$17</definedName>
     <definedName name="Kumar" localSheetId="8">#REF!</definedName>
     <definedName name="Kumar" localSheetId="5">#REF!</definedName>
     <definedName name="Kumar" localSheetId="9">#REF!</definedName>
@@ -5747,7 +5755,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G8"/>
+      <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7002,7 +7010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A5" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="C22" sqref="C22:J24"/>
     </sheetView>
   </sheetViews>
